--- a/Commodities_returns.xlsx
+++ b/Commodities_returns.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="134">
   <si>
     <t>Instrument</t>
   </si>
@@ -29,9 +29,6 @@
   </si>
   <si>
     <t>GCc1</t>
-  </si>
-  <si>
-    <t>LCOc1</t>
   </si>
   <si>
     <t>LCc1</t>
@@ -776,13 +773,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M123"/>
+  <dimension ref="A1:L123"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:12">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
         <v>1</v>
@@ -797,9 +794,8 @@
       <c r="J1" s="1"/>
       <c r="K1" s="1"/>
       <c r="L1" s="1"/>
-      <c r="M1" s="1"/>
-    </row>
-    <row r="2" spans="1:13">
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -836,21 +832,15 @@
       <c r="L2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="M2" s="1" t="s">
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="1" t="s">
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
         <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B4">
-        <v>0.2359691531485968</v>
       </c>
       <c r="C4">
         <v>-0.1874596123887251</v>
@@ -858,34 +848,34 @@
       <c r="D4">
         <v>6.143966990749382</v>
       </c>
+      <c r="E4">
+        <v>-1.55850287859009</v>
+      </c>
       <c r="F4">
-        <v>-1.55850287859009</v>
+        <v>-0.290478159753782</v>
       </c>
       <c r="G4">
-        <v>-0.290478159753782</v>
+        <v>-4.222066061713457</v>
       </c>
       <c r="H4">
-        <v>-4.222066061713457</v>
+        <v>0.4133532809571703</v>
       </c>
       <c r="I4">
-        <v>0.4133532809571703</v>
+        <v>-0.3407014075348425</v>
       </c>
       <c r="J4">
-        <v>-0.3407014075348425</v>
+        <v>4.219000738152155</v>
       </c>
       <c r="K4">
-        <v>4.219000738152155</v>
+        <v>-4.007160833464823</v>
       </c>
       <c r="L4">
-        <v>-4.007160833464823</v>
-      </c>
-      <c r="M4">
         <v>-1.052573590995907</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
+    <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B5">
         <v>0.08362934429398017</v>
@@ -897,36 +887,33 @@
         <v>-0.01618505615055899</v>
       </c>
       <c r="E5">
-        <v>0.100066295300083</v>
+        <v>0.02217912696171087</v>
       </c>
       <c r="F5">
-        <v>0.02217912696171087</v>
+        <v>0.05415142825108443</v>
       </c>
       <c r="G5">
-        <v>0.05415142825108443</v>
+        <v>0.04415642114531504</v>
       </c>
       <c r="H5">
-        <v>0.04415642114531504</v>
+        <v>-0.09719290339759912</v>
       </c>
       <c r="I5">
-        <v>-0.09719290339759912</v>
+        <v>0.02973075504198608</v>
       </c>
       <c r="J5">
-        <v>0.02973075504198608</v>
+        <v>0.06447938977723666</v>
       </c>
       <c r="K5">
-        <v>0.06447938977723666</v>
+        <v>0.03981887368291925</v>
       </c>
       <c r="L5">
-        <v>0.03981887368291925</v>
-      </c>
-      <c r="M5">
         <v>-0.002631085900466346</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B6">
         <v>-0.03855968203273896</v>
@@ -938,36 +925,33 @@
         <v>-0.02403051239320497</v>
       </c>
       <c r="E6">
-        <v>0.001791969201524246</v>
+        <v>-0.05805741462661285</v>
       </c>
       <c r="F6">
-        <v>-0.05805741462661285</v>
+        <v>0.03507970547685879</v>
       </c>
       <c r="G6">
-        <v>0.03507970547685879</v>
+        <v>-0.2074041536751962</v>
       </c>
       <c r="H6">
-        <v>-0.2074041536751962</v>
+        <v>-0.1470040571144429</v>
       </c>
       <c r="I6">
-        <v>-0.1470040571144429</v>
+        <v>-0.07872868188158755</v>
       </c>
       <c r="J6">
-        <v>-0.07872868188158755</v>
+        <v>-0.03172008592942177</v>
       </c>
       <c r="K6">
-        <v>-0.03172008592942177</v>
+        <v>-0.06307644386091082</v>
       </c>
       <c r="L6">
-        <v>-0.06307644386091082</v>
-      </c>
-      <c r="M6">
         <v>-0.005283031155524753</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B7">
         <v>0.01779834370887468</v>
@@ -979,36 +963,33 @@
         <v>-0.003540676426754708</v>
       </c>
       <c r="E7">
-        <v>-0.02814297557022982</v>
+        <v>-0.01421428614612985</v>
       </c>
       <c r="F7">
-        <v>-0.01421428614612985</v>
+        <v>-0.06083805922672525</v>
       </c>
       <c r="G7">
-        <v>-0.06083805922672525</v>
+        <v>0.07212374442641201</v>
       </c>
       <c r="H7">
-        <v>0.07212374442641201</v>
+        <v>-0.1552150758830448</v>
       </c>
       <c r="I7">
-        <v>-0.1552150758830448</v>
+        <v>0.04285620979312554</v>
       </c>
       <c r="J7">
-        <v>0.04285620979312554</v>
+        <v>-0.0440495417517317</v>
       </c>
       <c r="K7">
-        <v>-0.0440495417517317</v>
+        <v>-0.04762203952284239</v>
       </c>
       <c r="L7">
-        <v>-0.04762203952284239</v>
-      </c>
-      <c r="M7">
         <v>-0.01987073404217909</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B8">
         <v>-0.1922303132276664</v>
@@ -1020,36 +1001,33 @@
         <v>-0.06251259987194313</v>
       </c>
       <c r="E8">
-        <v>-0.1593678032271573</v>
+        <v>-0.01399217231107919</v>
       </c>
       <c r="F8">
-        <v>-0.01399217231107919</v>
+        <v>-0.06958550799588892</v>
       </c>
       <c r="G8">
-        <v>-0.06958550799588892</v>
+        <v>0.05822762078473243</v>
       </c>
       <c r="H8">
-        <v>0.05822762078473243</v>
+        <v>-0.2287502940754456</v>
       </c>
       <c r="I8">
-        <v>-0.2287502940754456</v>
+        <v>-0.1077673538686739</v>
       </c>
       <c r="J8">
-        <v>-0.1077673538686739</v>
+        <v>-0.1017029628454722</v>
       </c>
       <c r="K8">
-        <v>-0.1017029628454722</v>
+        <v>-0.1097522851946651</v>
       </c>
       <c r="L8">
-        <v>-0.1097522851946651</v>
-      </c>
-      <c r="M8">
         <v>-0.006194367464273043</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B9">
         <v>-0.01831061712501914</v>
@@ -1061,36 +1039,33 @@
         <v>0.02583763957056551</v>
       </c>
       <c r="E9">
-        <v>-0.04077291356120316</v>
+        <v>-0.00470790512190522</v>
       </c>
       <c r="F9">
-        <v>-0.00470790512190522</v>
+        <v>0.02902987970197124</v>
       </c>
       <c r="G9">
-        <v>0.02902987970197124</v>
+        <v>0.1535606745000951</v>
       </c>
       <c r="H9">
-        <v>0.1535606745000951</v>
+        <v>0.09038957045756213</v>
       </c>
       <c r="I9">
-        <v>0.09038957045756213</v>
+        <v>-0.04862272189068229</v>
       </c>
       <c r="J9">
-        <v>-0.04862272189068229</v>
+        <v>0.02303605982286516</v>
       </c>
       <c r="K9">
-        <v>0.02303605982286516</v>
+        <v>-0.00582059089845588</v>
       </c>
       <c r="L9">
-        <v>-0.00582059089845588</v>
-      </c>
-      <c r="M9">
         <v>0.1379874689702554</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B10">
         <v>0.03583784283397939</v>
@@ -1102,36 +1077,33 @@
         <v>0.004355949638044088</v>
       </c>
       <c r="E10">
-        <v>0.07027357795790135</v>
+        <v>0.01975215538378805</v>
       </c>
       <c r="F10">
-        <v>0.01975215538378805</v>
+        <v>-0.01596260993314846</v>
       </c>
       <c r="G10">
-        <v>-0.01596260993314846</v>
+        <v>0.1278050424967241</v>
       </c>
       <c r="H10">
-        <v>0.1278050424967241</v>
+        <v>-0.1097639092949221</v>
       </c>
       <c r="I10">
-        <v>-0.1097639092949221</v>
+        <v>0.01142577232144237</v>
       </c>
       <c r="J10">
-        <v>0.01142577232144237</v>
+        <v>-0.02353049741019397</v>
       </c>
       <c r="K10">
-        <v>-0.02353049741019397</v>
+        <v>0.01135658893233593</v>
       </c>
       <c r="L10">
-        <v>0.01135658893233593</v>
-      </c>
-      <c r="M10">
         <v>0.1839553139529349</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11">
         <v>0.09121367885485387</v>
@@ -1143,36 +1115,33 @@
         <v>0.04498345711000962</v>
       </c>
       <c r="E11">
-        <v>0.08798783490686102</v>
+        <v>-0.006752505083372995</v>
       </c>
       <c r="F11">
-        <v>-0.006752505083372995</v>
+        <v>0.07432997817491493</v>
       </c>
       <c r="G11">
-        <v>0.07432997817491493</v>
+        <v>-0.1366971515944033</v>
       </c>
       <c r="H11">
-        <v>-0.1366971515944033</v>
+        <v>0.1824731983136925</v>
       </c>
       <c r="I11">
-        <v>0.1824731983136925</v>
+        <v>0.06276182717635148</v>
       </c>
       <c r="J11">
-        <v>0.06276182717635148</v>
+        <v>0.08196475149492954</v>
       </c>
       <c r="K11">
-        <v>0.08196475149492954</v>
+        <v>0.1174045609050953</v>
       </c>
       <c r="L11">
-        <v>0.1174045609050953</v>
-      </c>
-      <c r="M11">
         <v>-0.0207600232525067</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12">
         <v>-0.04538041437195872</v>
@@ -1184,36 +1153,33 @@
         <v>0.05007267558132344</v>
       </c>
       <c r="E12">
-        <v>-0.01921102437535804</v>
+        <v>0.03331559416554253</v>
       </c>
       <c r="F12">
-        <v>0.03331559416554253</v>
+        <v>0.05225192489196484</v>
       </c>
       <c r="G12">
-        <v>0.05225192489196484</v>
+        <v>0.1707025723950806</v>
       </c>
       <c r="H12">
-        <v>0.1707025723950806</v>
+        <v>-0.1533296876437218</v>
       </c>
       <c r="I12">
-        <v>-0.1533296876437218</v>
+        <v>0.01846060629890811</v>
       </c>
       <c r="J12">
-        <v>0.01846060629890811</v>
+        <v>0.08062835922761113</v>
       </c>
       <c r="K12">
-        <v>0.08062835922761113</v>
+        <v>0.09559993409471534</v>
       </c>
       <c r="L12">
-        <v>0.09559993409471534</v>
-      </c>
-      <c r="M12">
         <v>0.03667547855840603</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13">
         <v>-0.0667175576498158</v>
@@ -1225,36 +1191,33 @@
         <v>-0.03073107736608272</v>
       </c>
       <c r="E13">
-        <v>-0.03338317140301239</v>
+        <v>0.03758103252356904</v>
       </c>
       <c r="F13">
-        <v>0.03758103252356904</v>
+        <v>0.06653025309334559</v>
       </c>
       <c r="G13">
-        <v>0.06653025309334559</v>
+        <v>0.1062035337122087</v>
       </c>
       <c r="H13">
-        <v>0.1062035337122087</v>
+        <v>-0.06291956427502043</v>
       </c>
       <c r="I13">
-        <v>-0.06291956427502043</v>
+        <v>-0.04910288405314667</v>
       </c>
       <c r="J13">
-        <v>-0.04910288405314667</v>
+        <v>-0.05511529594640052</v>
       </c>
       <c r="K13">
-        <v>-0.05511529594640052</v>
+        <v>-0.06675631212610345</v>
       </c>
       <c r="L13">
-        <v>-0.06675631212610345</v>
-      </c>
-      <c r="M13">
         <v>-0.04301738508369013</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B14">
         <v>0.03049051497236022</v>
@@ -1266,36 +1229,33 @@
         <v>-0.003850197265901301</v>
       </c>
       <c r="E14">
-        <v>0.02300833547677428</v>
+        <v>-0.000197258112879517</v>
       </c>
       <c r="F14">
-        <v>-0.000197258112879517</v>
+        <v>0.01970212983365549</v>
       </c>
       <c r="G14">
-        <v>0.01970212983365549</v>
+        <v>-0.03612691234496501</v>
       </c>
       <c r="H14">
-        <v>-0.03612691234496501</v>
+        <v>0.1484200051182727</v>
       </c>
       <c r="I14">
-        <v>0.1484200051182727</v>
+        <v>0.119423725113843</v>
       </c>
       <c r="J14">
-        <v>0.119423725113843</v>
+        <v>0.01704926327780321</v>
       </c>
       <c r="K14">
-        <v>0.01704926327780321</v>
+        <v>0.0279747064215905</v>
       </c>
       <c r="L14">
-        <v>0.0279747064215905</v>
-      </c>
-      <c r="M14">
         <v>-0.02311057952894657</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15">
         <v>0.03220551668802862</v>
@@ -1307,36 +1267,33 @@
         <v>-0.02132579268561496</v>
       </c>
       <c r="E15">
-        <v>-0.001079428008020855</v>
+        <v>0.02474553931814061</v>
       </c>
       <c r="F15">
-        <v>0.02474553931814061</v>
+        <v>-0.04767491280841174</v>
       </c>
       <c r="G15">
-        <v>-0.04767491280841174</v>
+        <v>-0.06078259554046728</v>
       </c>
       <c r="H15">
-        <v>-0.06078259554046728</v>
+        <v>-0.06019368020235305</v>
       </c>
       <c r="I15">
-        <v>-0.06019368020235305</v>
+        <v>0.02361690872301381</v>
       </c>
       <c r="J15">
-        <v>0.02361690872301381</v>
+        <v>-0.04100135063229526</v>
       </c>
       <c r="K15">
-        <v>-0.04100135063229526</v>
+        <v>-0.0957228658389524</v>
       </c>
       <c r="L15">
-        <v>-0.0957228658389524</v>
-      </c>
-      <c r="M15">
         <v>-0.08231420141600765</v>
       </c>
     </row>
-    <row r="16" spans="1:13">
+    <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B16">
         <v>0.0599196698201041</v>
@@ -1348,36 +1305,33 @@
         <v>-0.008514772317057329</v>
       </c>
       <c r="E16">
-        <v>0.0391826351244724</v>
+        <v>-0.01766864719172379</v>
       </c>
       <c r="F16">
-        <v>-0.01766864719172379</v>
+        <v>0.006643516130549365</v>
       </c>
       <c r="G16">
-        <v>0.006643516130549365</v>
+        <v>-0.00358744779365594</v>
       </c>
       <c r="H16">
-        <v>-0.00358744779365594</v>
+        <v>0.0309674798434818</v>
       </c>
       <c r="I16">
-        <v>0.0309674798434818</v>
+        <v>0.05892792034089389</v>
       </c>
       <c r="J16">
-        <v>0.05892792034089389</v>
+        <v>0.08421832904524162</v>
       </c>
       <c r="K16">
-        <v>0.08421832904524162</v>
+        <v>0.03778819892280216</v>
       </c>
       <c r="L16">
-        <v>0.03778819892280216</v>
-      </c>
-      <c r="M16">
         <v>0.001926164319439927</v>
       </c>
     </row>
-    <row r="17" spans="1:13">
+    <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B17">
         <v>-0.05741790096209343</v>
@@ -1389,36 +1343,33 @@
         <v>-0.05121089256452205</v>
       </c>
       <c r="E17">
-        <v>-0.03675555855886703</v>
+        <v>0.0029339874347869</v>
       </c>
       <c r="F17">
-        <v>0.0029339874347869</v>
+        <v>0.03614213588249005</v>
       </c>
       <c r="G17">
-        <v>0.03614213588249005</v>
+        <v>0.04308358613631169</v>
       </c>
       <c r="H17">
-        <v>0.04308358613631169</v>
+        <v>0.06037887930420105</v>
       </c>
       <c r="I17">
-        <v>0.06037887930420105</v>
+        <v>-0.0171869715429338</v>
       </c>
       <c r="J17">
-        <v>-0.0171869715429338</v>
+        <v>-0.05621355124012695</v>
       </c>
       <c r="K17">
-        <v>-0.05621355124012695</v>
+        <v>-0.09852261034724297</v>
       </c>
       <c r="L17">
-        <v>-0.09852261034724297</v>
-      </c>
-      <c r="M17">
         <v>-0.09656176450582254</v>
       </c>
     </row>
-    <row r="18" spans="1:13">
+    <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18">
         <v>0.05474739814247886</v>
@@ -1430,36 +1381,33 @@
         <v>0.01078024624379115</v>
       </c>
       <c r="E18">
-        <v>-0.01228561071421019</v>
+        <v>0.007006646025525143</v>
       </c>
       <c r="F18">
-        <v>0.007006646025525143</v>
+        <v>0.006218557202620545</v>
       </c>
       <c r="G18">
-        <v>0.006218557202620545</v>
+        <v>0.143521485699609</v>
       </c>
       <c r="H18">
-        <v>0.143521485699609</v>
+        <v>0.06101778085432752</v>
       </c>
       <c r="I18">
-        <v>0.06101778085432752</v>
+        <v>0.04601732062053632</v>
       </c>
       <c r="J18">
-        <v>0.04601732062053632</v>
+        <v>-0.007103023268245856</v>
       </c>
       <c r="K18">
-        <v>-0.007103023268245856</v>
+        <v>-0.003633994155652687</v>
       </c>
       <c r="L18">
-        <v>-0.003633994155652687</v>
-      </c>
-      <c r="M18">
         <v>-0.02866552418732482</v>
       </c>
     </row>
-    <row r="19" spans="1:13">
+    <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B19">
         <v>-0.03954576854928593</v>
@@ -1471,36 +1419,33 @@
         <v>-0.07999045588259435</v>
       </c>
       <c r="E19">
-        <v>-0.07206846651563303</v>
+        <v>-0.00388651868928136</v>
       </c>
       <c r="F19">
-        <v>-0.00388651868928136</v>
+        <v>-0.05803572498117493</v>
       </c>
       <c r="G19">
-        <v>-0.05803572498117493</v>
+        <v>0.07628892075524663</v>
       </c>
       <c r="H19">
-        <v>0.07628892075524663</v>
+        <v>0.04520748074001624</v>
       </c>
       <c r="I19">
-        <v>0.04520748074001624</v>
+        <v>-0.096262268929177</v>
       </c>
       <c r="J19">
-        <v>-0.096262268929177</v>
+        <v>-0.04278101499977005</v>
       </c>
       <c r="K19">
-        <v>-0.04278101499977005</v>
+        <v>-0.1585431771482502</v>
       </c>
       <c r="L19">
-        <v>-0.1585431771482502</v>
-      </c>
-      <c r="M19">
         <v>0.04825341873836031</v>
       </c>
     </row>
-    <row r="20" spans="1:13">
+    <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B20">
         <v>-0.01607110035767345</v>
@@ -1512,36 +1457,33 @@
         <v>-0.05558537711615941</v>
       </c>
       <c r="E20">
-        <v>-0.01953110022824411</v>
+        <v>-0.0568835753058563</v>
       </c>
       <c r="F20">
-        <v>-0.0568835753058563</v>
+        <v>0.01859653777967463</v>
       </c>
       <c r="G20">
-        <v>0.01859653777967463</v>
+        <v>-0.0862790138303331</v>
       </c>
       <c r="H20">
-        <v>-0.0862790138303331</v>
+        <v>0.0680022820052546</v>
       </c>
       <c r="I20">
-        <v>0.0680022820052546</v>
+        <v>0.07511732540798999</v>
       </c>
       <c r="J20">
-        <v>0.07511732540798999</v>
+        <v>-0.03021133341442184</v>
       </c>
       <c r="K20">
-        <v>-0.03021133341442184</v>
+        <v>-0.08268314660781817</v>
       </c>
       <c r="L20">
-        <v>-0.08268314660781817</v>
-      </c>
-      <c r="M20">
         <v>-0.02277204725017512</v>
       </c>
     </row>
-    <row r="21" spans="1:13">
+    <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B21">
         <v>0.04870213987466965</v>
@@ -1553,36 +1495,33 @@
         <v>-0.1292117314800061</v>
       </c>
       <c r="E21">
-        <v>0.01747761102084855</v>
+        <v>-0.02631181231708712</v>
       </c>
       <c r="F21">
-        <v>-0.02631181231708712</v>
+        <v>-0.001690357682551102</v>
       </c>
       <c r="G21">
-        <v>-0.001690357682551102</v>
+        <v>-0.1111222858560925</v>
       </c>
       <c r="H21">
-        <v>-0.1111222858560925</v>
+        <v>-0.1528301117911735</v>
       </c>
       <c r="I21">
-        <v>-0.1528301117911735</v>
+        <v>-0.130445248848801</v>
       </c>
       <c r="J21">
-        <v>-0.130445248848801</v>
+        <v>-0.08849380919693228</v>
       </c>
       <c r="K21">
-        <v>-0.08849380919693228</v>
+        <v>-0.1334542727931201</v>
       </c>
       <c r="L21">
-        <v>-0.1334542727931201</v>
-      </c>
-      <c r="M21">
         <v>-0.08424476753637045</v>
       </c>
     </row>
-    <row r="22" spans="1:13">
+    <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B22">
         <v>0.08408144684540808</v>
@@ -1594,36 +1533,33 @@
         <v>0.06989675005850682</v>
       </c>
       <c r="E22">
-        <v>0.05280937243805894</v>
+        <v>0.0275476518152642</v>
       </c>
       <c r="F22">
-        <v>0.0275476518152642</v>
+        <v>0.01904239122437623</v>
       </c>
       <c r="G22">
-        <v>0.01904239122437623</v>
+        <v>-0.0339499157605212</v>
       </c>
       <c r="H22">
-        <v>-0.0339499157605212</v>
+        <v>0.1023536902167681</v>
       </c>
       <c r="I22">
-        <v>0.1023536902167681</v>
+        <v>0.09576517336643153</v>
       </c>
       <c r="J22">
-        <v>0.09576517336643153</v>
+        <v>0.06620143573121595</v>
       </c>
       <c r="K22">
-        <v>0.06620143573121595</v>
+        <v>0.008498054622693818</v>
       </c>
       <c r="L22">
-        <v>0.008498054622693818</v>
-      </c>
-      <c r="M22">
         <v>0.02399658088342438</v>
       </c>
     </row>
-    <row r="23" spans="1:13">
+    <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B23">
         <v>0.0246392001756881</v>
@@ -1635,36 +1571,33 @@
         <v>0.06182511290765547</v>
       </c>
       <c r="E23">
-        <v>0.05693657968328569</v>
+        <v>0.01023969626868393</v>
       </c>
       <c r="F23">
-        <v>0.01023969626868393</v>
+        <v>-0.01643122316368739</v>
       </c>
       <c r="G23">
-        <v>-0.01643122316368739</v>
+        <v>0.03842795291055756</v>
       </c>
       <c r="H23">
-        <v>0.03842795291055756</v>
+        <v>-0.04950271818423513</v>
       </c>
       <c r="I23">
-        <v>-0.04950271818423513</v>
+        <v>-0.00462851850455781</v>
       </c>
       <c r="J23">
-        <v>-0.00462851850455781</v>
+        <v>0.06622604913523933</v>
       </c>
       <c r="K23">
-        <v>0.06622604913523933</v>
+        <v>0.1790281750403353</v>
       </c>
       <c r="L23">
-        <v>0.1790281750403353</v>
-      </c>
-      <c r="M23">
         <v>-0.03212513347806922</v>
       </c>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B24">
         <v>-0.05068233871170857</v>
@@ -1676,36 +1609,33 @@
         <v>-0.05113874041680777</v>
       </c>
       <c r="E24">
-        <v>-0.05073486591072474</v>
+        <v>0.04111535002033051</v>
       </c>
       <c r="F24">
-        <v>0.04111535002033051</v>
+        <v>0.03969849202154041</v>
       </c>
       <c r="G24">
-        <v>0.03969849202154041</v>
+        <v>-0.005881546152356476</v>
       </c>
       <c r="H24">
-        <v>-0.005881546152356476</v>
+        <v>-0.04213111440033579</v>
       </c>
       <c r="I24">
-        <v>-0.04213111440033579</v>
+        <v>0.005592971596676932</v>
       </c>
       <c r="J24">
-        <v>0.005592971596676932</v>
+        <v>-0.0805397079322665</v>
       </c>
       <c r="K24">
-        <v>-0.0805397079322665</v>
+        <v>-0.08014215997558383</v>
       </c>
       <c r="L24">
-        <v>-0.08014215997558383</v>
-      </c>
-      <c r="M24">
         <v>0.05335102811307024</v>
       </c>
     </row>
-    <row r="25" spans="1:13">
+    <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B25">
         <v>-0.05990417388647717</v>
@@ -1717,36 +1647,33 @@
         <v>-0.00218859753033751</v>
       </c>
       <c r="E25">
-        <v>0.00432761598014153</v>
+        <v>0.05070649730469778</v>
       </c>
       <c r="F25">
-        <v>0.05070649730469778</v>
+        <v>0.03149066709137127</v>
       </c>
       <c r="G25">
-        <v>0.03149066709137127</v>
+        <v>0.005881546152356476</v>
       </c>
       <c r="H25">
-        <v>0.005881546152356476</v>
+        <v>-0.07715908054661824</v>
       </c>
       <c r="I25">
-        <v>-0.07715908054661824</v>
+        <v>0.01381312991198325</v>
       </c>
       <c r="J25">
-        <v>0.01381312991198325</v>
+        <v>0.02649068711081437</v>
       </c>
       <c r="K25">
-        <v>0.02649068711081437</v>
+        <v>0.008094231094037063</v>
       </c>
       <c r="L25">
-        <v>0.008094231094037063</v>
-      </c>
-      <c r="M25">
         <v>-0.01634508900051923</v>
       </c>
     </row>
-    <row r="26" spans="1:13">
+    <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B26">
         <v>-0.03871451218069044</v>
@@ -1758,36 +1685,33 @@
         <v>-0.05673186091425908</v>
       </c>
       <c r="E26">
-        <v>0.007779291508197339</v>
+        <v>-0.007650004655643805</v>
       </c>
       <c r="F26">
-        <v>-0.007650004655643805</v>
+        <v>0.02246015735873463</v>
       </c>
       <c r="G26">
-        <v>0.02246015735873463</v>
+        <v>0.09908563373212975</v>
       </c>
       <c r="H26">
-        <v>0.09908563373212975</v>
+        <v>0.1391715655007832</v>
       </c>
       <c r="I26">
-        <v>0.1391715655007832</v>
+        <v>-0.02510016591757225</v>
       </c>
       <c r="J26">
-        <v>-0.02510016591757225</v>
+        <v>-0.0554552479386814</v>
       </c>
       <c r="K26">
-        <v>-0.0554552479386814</v>
+        <v>-0.08859496138804168</v>
       </c>
       <c r="L26">
-        <v>-0.08859496138804168</v>
-      </c>
-      <c r="M26">
         <v>-0.01890415463915307</v>
       </c>
     </row>
-    <row r="27" spans="1:13">
+    <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B27">
         <v>0.0596598364063361</v>
@@ -1799,36 +1723,33 @@
         <v>-0.03971979817445437</v>
       </c>
       <c r="E27">
-        <v>0.0100685688899409</v>
+        <v>0.007650004655643805</v>
       </c>
       <c r="F27">
-        <v>0.007650004655643805</v>
+        <v>-0.03815409403897707</v>
       </c>
       <c r="G27">
-        <v>-0.03815409403897707</v>
+        <v>0.06747426830976133</v>
       </c>
       <c r="H27">
-        <v>0.06747426830976133</v>
+        <v>-0.02353901910856848</v>
       </c>
       <c r="I27">
-        <v>-0.02353901910856848</v>
+        <v>-0.000836003950041686</v>
       </c>
       <c r="J27">
-        <v>-0.000836003950041686</v>
+        <v>0.002336620267210598</v>
       </c>
       <c r="K27">
-        <v>0.002336620267210598</v>
+        <v>-0.03265803963783442</v>
       </c>
       <c r="L27">
-        <v>-0.03265803963783442</v>
-      </c>
-      <c r="M27">
         <v>-0.07899363981708341</v>
       </c>
     </row>
-    <row r="28" spans="1:13">
+    <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B28">
         <v>-0.009494226796651795</v>
@@ -1840,36 +1761,33 @@
         <v>0.03128838354998287</v>
       </c>
       <c r="E28">
-        <v>-0.04052119740563942</v>
+        <v>0.05197150301378972</v>
       </c>
       <c r="F28">
-        <v>0.05197150301378972</v>
+        <v>-0.1199621605108518</v>
       </c>
       <c r="G28">
-        <v>-0.1199621605108518</v>
+        <v>0.1557704412666354</v>
       </c>
       <c r="H28">
-        <v>0.1557704412666354</v>
+        <v>0.04373456820433397</v>
       </c>
       <c r="I28">
-        <v>0.04373456820433397</v>
+        <v>-0.02027667328751726</v>
       </c>
       <c r="J28">
-        <v>-0.02027667328751726</v>
+        <v>0.002185633975119394</v>
       </c>
       <c r="K28">
-        <v>0.002185633975119394</v>
+        <v>-0.01217370148129771</v>
       </c>
       <c r="L28">
-        <v>-0.01217370148129771</v>
-      </c>
-      <c r="M28">
         <v>-0.08532304297386251</v>
       </c>
     </row>
-    <row r="29" spans="1:13">
+    <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B29">
         <v>0.05099065345844078</v>
@@ -1881,36 +1799,33 @@
         <v>0.06349975908705918</v>
       </c>
       <c r="E29">
-        <v>0.02478430103310725</v>
+        <v>0.07001581730711859</v>
       </c>
       <c r="F29">
-        <v>0.07001581730711859</v>
+        <v>-0.08481246367381257</v>
       </c>
       <c r="G29">
-        <v>-0.08481246367381257</v>
+        <v>-0.06996152058645078</v>
       </c>
       <c r="H29">
-        <v>-0.06996152058645078</v>
+        <v>0.03582884092752625</v>
       </c>
       <c r="I29">
-        <v>0.03582884092752625</v>
+        <v>0.05648250979258762</v>
       </c>
       <c r="J29">
-        <v>0.05648250979258762</v>
+        <v>0.05114045540312251</v>
       </c>
       <c r="K29">
-        <v>0.05114045540312251</v>
+        <v>0.1042397622266962</v>
       </c>
       <c r="L29">
-        <v>0.1042397622266962</v>
-      </c>
-      <c r="M29">
         <v>0.07494304527114348</v>
       </c>
     </row>
-    <row r="30" spans="1:13">
+    <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B30">
         <v>-0.009893796726522019</v>
@@ -1922,36 +1837,33 @@
         <v>-0.02917897427937</v>
       </c>
       <c r="E30">
-        <v>-0.01208334583854231</v>
+        <v>-0.04097282304907157</v>
       </c>
       <c r="F30">
-        <v>-0.04097282304907157</v>
+        <v>-0.09092089538884318</v>
       </c>
       <c r="G30">
-        <v>-0.09092089538884318</v>
+        <v>-0.05301909785719361</v>
       </c>
       <c r="H30">
-        <v>-0.05301909785719361</v>
+        <v>0.04790346063303907</v>
       </c>
       <c r="I30">
-        <v>0.04790346063303907</v>
+        <v>0.04424424245013636</v>
       </c>
       <c r="J30">
-        <v>0.04424424245013636</v>
+        <v>-0.0193394514919456</v>
       </c>
       <c r="K30">
-        <v>-0.0193394514919456</v>
+        <v>-0.07184680669058441</v>
       </c>
       <c r="L30">
-        <v>-0.07184680669058441</v>
-      </c>
-      <c r="M30">
         <v>0.1518824283921489</v>
       </c>
     </row>
-    <row r="31" spans="1:13">
+    <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B31">
         <v>-0.01827986525512237</v>
@@ -1963,36 +1875,33 @@
         <v>0.00946110198075889</v>
       </c>
       <c r="E31">
-        <v>0.002872633212965603</v>
+        <v>-0.0001714236740291142</v>
       </c>
       <c r="F31">
-        <v>-0.0001714236740291142</v>
+        <v>-0.1026119828767009</v>
       </c>
       <c r="G31">
-        <v>-0.1026119828767009</v>
+        <v>0.09674422936891136</v>
       </c>
       <c r="H31">
-        <v>0.09674422936891136</v>
+        <v>-0.00258398076592492</v>
       </c>
       <c r="I31">
-        <v>-0.00258398076592492</v>
+        <v>0.04421686849579576</v>
       </c>
       <c r="J31">
-        <v>0.04421686849579576</v>
+        <v>0.00569401559503202</v>
       </c>
       <c r="K31">
-        <v>0.00569401559503202</v>
+        <v>-0.03166043143470842</v>
       </c>
       <c r="L31">
-        <v>-0.03166043143470842</v>
-      </c>
-      <c r="M31">
         <v>0.02233739390669776</v>
       </c>
     </row>
-    <row r="32" spans="1:13">
+    <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B32">
         <v>0.02934268305973653</v>
@@ -2004,36 +1913,33 @@
         <v>-0.03935656677738564</v>
       </c>
       <c r="E32">
-        <v>0.01232312817362402</v>
+        <v>-0.05660391406014309</v>
       </c>
       <c r="F32">
-        <v>-0.05660391406014309</v>
+        <v>-0.04712740209031807</v>
       </c>
       <c r="G32">
-        <v>-0.04712740209031807</v>
+        <v>-0.05836860156672241</v>
       </c>
       <c r="H32">
-        <v>-0.05836860156672241</v>
+        <v>0.03057563020279286</v>
       </c>
       <c r="I32">
-        <v>0.03057563020279286</v>
+        <v>0.02790935258574923</v>
       </c>
       <c r="J32">
-        <v>0.02790935258574923</v>
+        <v>0.01950570293547838</v>
       </c>
       <c r="K32">
-        <v>0.01950570293547838</v>
+        <v>-0.02467561393784123</v>
       </c>
       <c r="L32">
-        <v>-0.02467561393784123</v>
-      </c>
-      <c r="M32">
         <v>-0.128136235167764</v>
       </c>
     </row>
-    <row r="33" spans="1:13">
+    <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B33">
         <v>0.02556848243372301</v>
@@ -2045,36 +1951,33 @@
         <v>0.0593771025165637</v>
       </c>
       <c r="E33">
-        <v>0.02660570874734436</v>
+        <v>0.1046345628128771</v>
       </c>
       <c r="F33">
-        <v>0.1046345628128771</v>
+        <v>-0.1085372825681556</v>
       </c>
       <c r="G33">
-        <v>-0.1085372825681556</v>
+        <v>-0.01799448753723887</v>
       </c>
       <c r="H33">
-        <v>-0.01799448753723887</v>
+        <v>-0.1240763226321722</v>
       </c>
       <c r="I33">
-        <v>-0.1240763226321722</v>
+        <v>0.009409311917050189</v>
       </c>
       <c r="J33">
-        <v>0.009409311917050189</v>
+        <v>0.01791784148838271</v>
       </c>
       <c r="K33">
-        <v>0.01791784148838271</v>
+        <v>0.118848724451118</v>
       </c>
       <c r="L33">
-        <v>0.118848724451118</v>
-      </c>
-      <c r="M33">
         <v>-0.1049620298984193</v>
       </c>
     </row>
-    <row r="34" spans="1:13">
+    <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B34">
         <v>-0.0707772959070061</v>
@@ -2086,36 +1989,33 @@
         <v>-0.03111925652082181</v>
       </c>
       <c r="E34">
-        <v>-0.05808024667638279</v>
+        <v>0.03168231539232913</v>
       </c>
       <c r="F34">
-        <v>0.03168231539232913</v>
+        <v>0.04710524380451275</v>
       </c>
       <c r="G34">
-        <v>0.04710524380451275</v>
+        <v>-0.1496402067823599</v>
       </c>
       <c r="H34">
-        <v>-0.1496402067823599</v>
+        <v>-0.0007104796035992678</v>
       </c>
       <c r="I34">
-        <v>-0.0007104796035992678</v>
+        <v>0.03620462928429014</v>
       </c>
       <c r="J34">
-        <v>0.03620462928429014</v>
+        <v>-0.01038459123454416</v>
       </c>
       <c r="K34">
-        <v>-0.01038459123454416</v>
+        <v>-0.03064522071377951</v>
       </c>
       <c r="L34">
-        <v>-0.03064522071377951</v>
-      </c>
-      <c r="M34">
         <v>-0.06303456190332124</v>
       </c>
     </row>
-    <row r="35" spans="1:13">
+    <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B35">
         <v>-0.02276923173293621</v>
@@ -2127,36 +2027,33 @@
         <v>0.003505905192056069</v>
       </c>
       <c r="E35">
-        <v>-0.02705580643203742</v>
+        <v>-0.01290546072103371</v>
       </c>
       <c r="F35">
-        <v>-0.01290546072103371</v>
+        <v>0.2078501351447115</v>
       </c>
       <c r="G35">
-        <v>0.2078501351447115</v>
+        <v>0.0566809936360062</v>
       </c>
       <c r="H35">
-        <v>0.0566809936360062</v>
+        <v>0.05429163778827384</v>
       </c>
       <c r="I35">
-        <v>0.05429163778827384</v>
+        <v>0.03813617519099566</v>
       </c>
       <c r="J35">
-        <v>0.03813617519099566</v>
+        <v>-0.02696885891248613</v>
       </c>
       <c r="K35">
-        <v>-0.02696885891248613</v>
+        <v>-0.04904052682841309</v>
       </c>
       <c r="L35">
-        <v>-0.04904052682841309</v>
-      </c>
-      <c r="M35">
         <v>0.03702412696177948</v>
       </c>
     </row>
-    <row r="36" spans="1:13">
+    <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B36">
         <v>-0.05131523359401058</v>
@@ -2168,36 +2065,33 @@
         <v>-0.06034759532947387</v>
       </c>
       <c r="E36">
-        <v>-0.08617478898682318</v>
+        <v>0.02876759149213548</v>
       </c>
       <c r="F36">
-        <v>0.02876759149213548</v>
+        <v>0.08781014464777792</v>
       </c>
       <c r="G36">
-        <v>0.08781014464777792</v>
+        <v>0.01368210935690639</v>
       </c>
       <c r="H36">
-        <v>0.01368210935690639</v>
+        <v>-0.02591348545551231</v>
       </c>
       <c r="I36">
-        <v>-0.02591348545551231</v>
+        <v>-0.1591614703842099</v>
       </c>
       <c r="J36">
-        <v>-0.1591614703842099</v>
+        <v>-0.09415433301796572</v>
       </c>
       <c r="K36">
-        <v>-0.09415433301796572</v>
+        <v>-0.1316037450077503</v>
       </c>
       <c r="L36">
-        <v>-0.1316037450077503</v>
-      </c>
-      <c r="M36">
         <v>-0.1412851372861885</v>
       </c>
     </row>
-    <row r="37" spans="1:13">
+    <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B37">
         <v>-0.1238622489541754</v>
@@ -2209,36 +2103,33 @@
         <v>-0.03309001933002165</v>
       </c>
       <c r="E37">
-        <v>-0.09767909734438529</v>
+        <v>0.05487055926463835</v>
       </c>
       <c r="F37">
-        <v>0.05487055926463835</v>
+        <v>-0.03131513846352352</v>
       </c>
       <c r="G37">
-        <v>-0.03131513846352352</v>
+        <v>-0.06206645182406523</v>
       </c>
       <c r="H37">
-        <v>-0.06206645182406523</v>
+        <v>-0.0797836738681772</v>
       </c>
       <c r="I37">
-        <v>-0.0797836738681772</v>
+        <v>0.02106819498868706</v>
       </c>
       <c r="J37">
-        <v>0.02106819498868706</v>
+        <v>-0.04916759387763037</v>
       </c>
       <c r="K37">
-        <v>-0.04916759387763037</v>
+        <v>-0.0561765437827777</v>
       </c>
       <c r="L37">
-        <v>-0.0561765437827777</v>
-      </c>
-      <c r="M37">
         <v>0.1084953144631982</v>
       </c>
     </row>
-    <row r="38" spans="1:13">
+    <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B38">
         <v>-0.1968290648623432</v>
@@ -2250,36 +2141,33 @@
         <v>0.003494867811576263</v>
       </c>
       <c r="E38">
-        <v>-0.2020822562479445</v>
+        <v>-0.003694130540141671</v>
       </c>
       <c r="F38">
-        <v>-0.003694130540141671</v>
+        <v>0.0748078777610699</v>
       </c>
       <c r="G38">
-        <v>0.0748078777610699</v>
+        <v>0.05402645236878811</v>
       </c>
       <c r="H38">
-        <v>0.05402645236878811</v>
+        <v>0.1077146448768573</v>
       </c>
       <c r="I38">
-        <v>0.1077146448768573</v>
+        <v>0.02612612357448274</v>
       </c>
       <c r="J38">
-        <v>0.02612612357448274</v>
+        <v>-0.02109127475102657</v>
       </c>
       <c r="K38">
-        <v>-0.02109127475102657</v>
+        <v>-0.03725958461520129</v>
       </c>
       <c r="L38">
-        <v>-0.03725958461520129</v>
-      </c>
-      <c r="M38">
         <v>0.08069255065102432</v>
       </c>
     </row>
-    <row r="39" spans="1:13">
+    <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B39">
         <v>-0.216551569632057</v>
@@ -2291,36 +2179,33 @@
         <v>0.007375727557922929</v>
       </c>
       <c r="E39">
-        <v>-0.2018117596281783</v>
+        <v>-0.01897987184784533</v>
       </c>
       <c r="F39">
-        <v>-0.01897987184784533</v>
+        <v>-0.1568716140697912</v>
       </c>
       <c r="G39">
-        <v>-0.1568716140697912</v>
+        <v>-0.3471454314173053</v>
       </c>
       <c r="H39">
-        <v>-0.3471454314173053</v>
+        <v>-0.06093958575566738</v>
       </c>
       <c r="I39">
-        <v>-0.06093958575566738</v>
+        <v>-0.01738310470897542</v>
       </c>
       <c r="J39">
-        <v>-0.01738310470897542</v>
+        <v>-0.001240028266200177</v>
       </c>
       <c r="K39">
-        <v>-0.001240028266200177</v>
+        <v>0.004894709327949887</v>
       </c>
       <c r="L39">
-        <v>0.004894709327949887</v>
-      </c>
-      <c r="M39">
         <v>0.02142327005317934</v>
       </c>
     </row>
-    <row r="40" spans="1:13">
+    <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B40">
         <v>-0.09918476850997759</v>
@@ -2332,36 +2217,33 @@
         <v>0.07687344231365056</v>
       </c>
       <c r="E40">
-        <v>-0.07872083041562083</v>
+        <v>-0.06772201801330535</v>
       </c>
       <c r="F40">
-        <v>-0.06772201801330535</v>
+        <v>-0.08262248965543373</v>
       </c>
       <c r="G40">
-        <v>-0.08262248965543373</v>
+        <v>-0.07099754973932937</v>
       </c>
       <c r="H40">
-        <v>-0.07099754973932937</v>
+        <v>-0.0003570790968137061</v>
       </c>
       <c r="I40">
-        <v>-0.0003570790968137061</v>
+        <v>-0.0327188500577158</v>
       </c>
       <c r="J40">
-        <v>-0.0327188500577158</v>
+        <v>0.02475515489471292</v>
       </c>
       <c r="K40">
-        <v>0.02475515489471292</v>
+        <v>0.0994193554466376</v>
       </c>
       <c r="L40">
-        <v>0.0994193554466376</v>
-      </c>
-      <c r="M40">
         <v>-0.1596056896350229</v>
       </c>
     </row>
-    <row r="41" spans="1:13">
+    <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B41">
         <v>0.03102289601199404</v>
@@ -2373,36 +2255,33 @@
         <v>-0.05292070109361102</v>
       </c>
       <c r="E41">
-        <v>0.1663425217360657</v>
+        <v>0.02013812660775471</v>
       </c>
       <c r="F41">
-        <v>0.02013812660775471</v>
+        <v>0.08702954807035557</v>
       </c>
       <c r="G41">
-        <v>0.08702954807035557</v>
+        <v>0.01585286655698903</v>
       </c>
       <c r="H41">
-        <v>0.01585286655698903</v>
+        <v>-0.1413167218471711</v>
       </c>
       <c r="I41">
-        <v>-0.1413167218471711</v>
+        <v>0.05752143265082488</v>
       </c>
       <c r="J41">
-        <v>0.05752143265082488</v>
+        <v>-0.04328966443156546</v>
       </c>
       <c r="K41">
-        <v>-0.04328966443156546</v>
+        <v>-0.040296209859358</v>
       </c>
       <c r="L41">
-        <v>-0.040296209859358</v>
-      </c>
-      <c r="M41">
         <v>0.02891649648676253</v>
       </c>
     </row>
-    <row r="42" spans="1:13">
+    <row r="42" spans="1:12">
       <c r="A42" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B42">
         <v>-0.04437868719354965</v>
@@ -2414,36 +2293,33 @@
         <v>-0.02462870237801251</v>
       </c>
       <c r="E42">
-        <v>-0.1271145503455919</v>
+        <v>0.02082593079493655</v>
       </c>
       <c r="F42">
-        <v>0.02082593079493655</v>
+        <v>-0.0863755970933715</v>
       </c>
       <c r="G42">
-        <v>-0.0863755970933715</v>
+        <v>-0.03498682114353291</v>
       </c>
       <c r="H42">
-        <v>-0.03498682114353291</v>
+        <v>0.02878771671073288</v>
       </c>
       <c r="I42">
-        <v>0.02878771671073288</v>
+        <v>-0.107541808377527</v>
       </c>
       <c r="J42">
-        <v>-0.107541808377527</v>
+        <v>-0.03786997838073169</v>
       </c>
       <c r="K42">
-        <v>-0.03786997838073169</v>
+        <v>0.004109512038384278</v>
       </c>
       <c r="L42">
-        <v>0.004109512038384278</v>
-      </c>
-      <c r="M42">
         <v>-0.01117330059812538</v>
       </c>
     </row>
-    <row r="43" spans="1:13">
+    <row r="43" spans="1:12">
       <c r="A43" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B43">
         <v>0.2253260418976399</v>
@@ -2455,36 +2331,33 @@
         <v>-0.0005918410656802209</v>
       </c>
       <c r="E43">
-        <v>0.1920724466203643</v>
+        <v>-0.01137704159700448</v>
       </c>
       <c r="F43">
-        <v>-0.01137704159700448</v>
+        <v>-0.0900072029329686</v>
       </c>
       <c r="G43">
-        <v>-0.0900072029329686</v>
+        <v>0.04118556478421254</v>
       </c>
       <c r="H43">
-        <v>0.04118556478421254</v>
+        <v>-0.134102527484985</v>
       </c>
       <c r="I43">
-        <v>-0.134102527484985</v>
+        <v>0.05492614337590496</v>
       </c>
       <c r="J43">
-        <v>0.05492614337590496</v>
+        <v>-0.00236582804762886</v>
       </c>
       <c r="K43">
-        <v>-0.00236582804762886</v>
+        <v>-0.02794861626431633</v>
       </c>
       <c r="L43">
-        <v>-0.02794861626431633</v>
-      </c>
-      <c r="M43">
         <v>-0.09150696687250104</v>
       </c>
     </row>
-    <row r="44" spans="1:13">
+    <row r="44" spans="1:12">
       <c r="A44" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B44">
         <v>0.01117330059812538</v>
@@ -2496,36 +2369,33 @@
         <v>0.005902707078556446</v>
       </c>
       <c r="E44">
-        <v>-0.01843788063987972</v>
+        <v>-0.04602752609034066</v>
       </c>
       <c r="F44">
-        <v>-0.04602752609034066</v>
+        <v>-0.001192890514830403</v>
       </c>
       <c r="G44">
-        <v>-0.001192890514830403</v>
+        <v>-0.0404282758423038</v>
       </c>
       <c r="H44">
-        <v>-0.0404282758423038</v>
+        <v>0.04337813978643368</v>
       </c>
       <c r="I44">
-        <v>0.04337813978643368</v>
+        <v>0.0003219056844150359</v>
       </c>
       <c r="J44">
-        <v>0.0003219056844150359</v>
+        <v>-0.02568002860310248</v>
       </c>
       <c r="K44">
-        <v>-0.02568002860310248</v>
+        <v>0.03414133107977957</v>
       </c>
       <c r="L44">
-        <v>0.03414133107977957</v>
-      </c>
-      <c r="M44">
         <v>0.02118723321944405</v>
       </c>
     </row>
-    <row r="45" spans="1:13">
+    <row r="45" spans="1:12">
       <c r="A45" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B45">
         <v>-0.01386012001463754</v>
@@ -2537,36 +2407,33 @@
         <v>-0.01516399932464285</v>
       </c>
       <c r="E45">
-        <v>-0.03050952859631195</v>
+        <v>-0.02981814983607212</v>
       </c>
       <c r="F45">
-        <v>-0.02981814983607212</v>
+        <v>0.005712941031982055</v>
       </c>
       <c r="G45">
-        <v>0.005712941031982055</v>
+        <v>0.06944696973133979</v>
       </c>
       <c r="H45">
-        <v>0.06944696973133979</v>
+        <v>0.005673155080395453</v>
       </c>
       <c r="I45">
-        <v>0.005673155080395453</v>
+        <v>-0.1453811767641344</v>
       </c>
       <c r="J45">
-        <v>-0.1453811767641344</v>
+        <v>-0.02959660673650344</v>
       </c>
       <c r="K45">
-        <v>-0.02959660673650344</v>
+        <v>-0.07032523109549826</v>
       </c>
       <c r="L45">
-        <v>-0.07032523109549826</v>
-      </c>
-      <c r="M45">
         <v>0.2536991902079606</v>
       </c>
     </row>
-    <row r="46" spans="1:13">
+    <row r="46" spans="1:12">
       <c r="A46" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B46">
         <v>-0.2327744443751709</v>
@@ -2578,36 +2445,33 @@
         <v>-0.06762194406847133</v>
       </c>
       <c r="E46">
-        <v>-0.1971821778568561</v>
+        <v>-0.01464853309732739</v>
       </c>
       <c r="F46">
-        <v>-0.01464853309732739</v>
+        <v>0.005208345107138079</v>
       </c>
       <c r="G46">
-        <v>0.005208345107138079</v>
+        <v>-0.04182296613502356</v>
       </c>
       <c r="H46">
-        <v>-0.04182296613502356</v>
+        <v>0.07298836016888099</v>
       </c>
       <c r="I46">
-        <v>0.07298836016888099</v>
+        <v>-0.09570480839321327</v>
       </c>
       <c r="J46">
-        <v>-0.09570480839321327</v>
+        <v>-0.09179328585087365</v>
       </c>
       <c r="K46">
-        <v>-0.09179328585087365</v>
+        <v>-0.05315308567174171</v>
       </c>
       <c r="L46">
-        <v>-0.05315308567174171</v>
-      </c>
-      <c r="M46">
         <v>-0.2081087088003777</v>
       </c>
     </row>
-    <row r="47" spans="1:13">
+    <row r="47" spans="1:12">
       <c r="A47" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B47">
         <v>0.04319608415493104</v>
@@ -2619,36 +2483,33 @@
         <v>0.03296952554803223</v>
       </c>
       <c r="E47">
-        <v>0.03648392602453887</v>
+        <v>-0.001373626589611376</v>
       </c>
       <c r="F47">
-        <v>-0.001373626589611376</v>
+        <v>-0.03532747520261426</v>
       </c>
       <c r="G47">
-        <v>-0.03532747520261426</v>
+        <v>-0.009990832409722206</v>
       </c>
       <c r="H47">
-        <v>-0.009990832409722206</v>
+        <v>0.04740223889458317</v>
       </c>
       <c r="I47">
-        <v>0.04740223889458317</v>
+        <v>-0.01452290563627567</v>
       </c>
       <c r="J47">
-        <v>-0.01452290563627567</v>
+        <v>0.02617871778288539</v>
       </c>
       <c r="K47">
-        <v>0.02617871778288539</v>
+        <v>-0.01152691547558327</v>
       </c>
       <c r="L47">
-        <v>-0.01152691547558327</v>
-      </c>
-      <c r="M47">
         <v>-0.03412605151688375</v>
       </c>
     </row>
-    <row r="48" spans="1:13">
+    <row r="48" spans="1:12">
       <c r="A48" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B48">
         <v>-0.08723313106526964</v>
@@ -2660,36 +2521,33 @@
         <v>-0.01432982555482454</v>
       </c>
       <c r="E48">
-        <v>-0.1128781866121078</v>
+        <v>-0.154465735179361</v>
       </c>
       <c r="F48">
-        <v>-0.154465735179361</v>
+        <v>0.0198601829093068</v>
       </c>
       <c r="G48">
-        <v>0.0198601829093068</v>
+        <v>-0.06332443260776088</v>
       </c>
       <c r="H48">
-        <v>-0.06332443260776088</v>
+        <v>-0.2052680096238442</v>
       </c>
       <c r="I48">
-        <v>-0.2052680096238442</v>
+        <v>0.07899998472903569</v>
       </c>
       <c r="J48">
-        <v>0.07899998472903569</v>
+        <v>-0.1074416818616513</v>
       </c>
       <c r="K48">
-        <v>-0.1074416818616513</v>
+        <v>-0.004400144603649903</v>
       </c>
       <c r="L48">
-        <v>-0.004400144603649903</v>
-      </c>
-      <c r="M48">
         <v>0.06080747617344961</v>
       </c>
     </row>
-    <row r="49" spans="1:13">
+    <row r="49" spans="1:12">
       <c r="A49" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B49">
         <v>0.03272543339571277</v>
@@ -2701,36 +2559,33 @@
         <v>0.02304045209726269</v>
       </c>
       <c r="E49">
-        <v>0.02430426992604984</v>
+        <v>0.1105605273752071</v>
       </c>
       <c r="F49">
-        <v>0.1105605273752071</v>
+        <v>-0.05546708151287261</v>
       </c>
       <c r="G49">
-        <v>-0.05546708151287261</v>
+        <v>-0.08384681738666666</v>
       </c>
       <c r="H49">
-        <v>-0.08384681738666666</v>
+        <v>0.2434940449632785</v>
       </c>
       <c r="I49">
-        <v>0.2434940449632785</v>
+        <v>0.03923548322026438</v>
       </c>
       <c r="J49">
-        <v>0.03923548322026438</v>
+        <v>0.08592686789937165</v>
       </c>
       <c r="K49">
-        <v>0.08592686789937165</v>
+        <v>0.070044249048971</v>
       </c>
       <c r="L49">
-        <v>0.070044249048971</v>
-      </c>
-      <c r="M49">
         <v>0.01787919093014878</v>
       </c>
     </row>
-    <row r="50" spans="1:13">
+    <row r="50" spans="1:12">
       <c r="A50" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B50">
         <v>-0.1120845572158538</v>
@@ -2742,36 +2597,33 @@
         <v>-0.06861749610716839</v>
       </c>
       <c r="E50">
-        <v>-0.1052260076207685</v>
+        <v>-0.06835188691273242</v>
       </c>
       <c r="F50">
-        <v>-0.06835188691273242</v>
+        <v>-0.02048727225845237</v>
       </c>
       <c r="G50">
-        <v>-0.02048727225845237</v>
+        <v>-0.03775689922676795</v>
       </c>
       <c r="H50">
-        <v>-0.03775689922676795</v>
+        <v>0.0513861233502535</v>
       </c>
       <c r="I50">
-        <v>0.0513861233502535</v>
+        <v>-0.222571379167074</v>
       </c>
       <c r="J50">
-        <v>-0.222571379167074</v>
+        <v>-0.1720968481208098</v>
       </c>
       <c r="K50">
-        <v>-0.1720968481208098</v>
+        <v>-0.1024666527574416</v>
       </c>
       <c r="L50">
-        <v>-0.1024666527574416</v>
-      </c>
-      <c r="M50">
         <v>-0.1264410983994981</v>
       </c>
     </row>
-    <row r="51" spans="1:13">
+    <row r="51" spans="1:12">
       <c r="A51" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B51">
         <v>-0.1173029588348733</v>
@@ -2783,36 +2635,33 @@
         <v>-0.005173803930929033</v>
       </c>
       <c r="E51">
-        <v>-0.1795010593227828</v>
+        <v>0.04326422322993473</v>
       </c>
       <c r="F51">
-        <v>0.04326422322993473</v>
+        <v>-0.1541075587216265</v>
       </c>
       <c r="G51">
-        <v>-0.1541075587216265</v>
+        <v>0.04462682749118885</v>
       </c>
       <c r="H51">
-        <v>0.04462682749118885</v>
+        <v>-0.01242251999855792</v>
       </c>
       <c r="I51">
-        <v>-0.01242251999855792</v>
+        <v>0.03419058945862119</v>
       </c>
       <c r="J51">
-        <v>0.03419058945862119</v>
+        <v>0.06893680038878447</v>
       </c>
       <c r="K51">
-        <v>0.06893680038878447</v>
+        <v>-0.01976704074077684</v>
       </c>
       <c r="L51">
-        <v>-0.01976704074077684</v>
-      </c>
-      <c r="M51">
         <v>0.02150620522096336</v>
       </c>
     </row>
-    <row r="52" spans="1:13">
+    <row r="52" spans="1:12">
       <c r="A52" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B52">
         <v>-0.09687728179750899</v>
@@ -2824,36 +2673,33 @@
         <v>0.05155733573041488</v>
       </c>
       <c r="E52">
-        <v>-0.07056522900443163</v>
+        <v>-0.003688679947853046</v>
       </c>
       <c r="F52">
-        <v>-0.003688679947853046</v>
+        <v>-0.07976605814899251</v>
       </c>
       <c r="G52">
-        <v>-0.07976605814899251</v>
+        <v>-0.01682887613015704</v>
       </c>
       <c r="H52">
-        <v>-0.01682887613015704</v>
+        <v>-0.0558147791063961</v>
       </c>
       <c r="I52">
-        <v>-0.0558147791063961</v>
+        <v>-0.119768779121733</v>
       </c>
       <c r="J52">
-        <v>-0.119768779121733</v>
+        <v>-0.02199635170166125</v>
       </c>
       <c r="K52">
-        <v>-0.02199635170166125</v>
+        <v>0.03242678052457615</v>
       </c>
       <c r="L52">
-        <v>0.03242678052457615</v>
-      </c>
-      <c r="M52">
         <v>0.01948968722164945</v>
       </c>
     </row>
-    <row r="53" spans="1:13">
+    <row r="53" spans="1:12">
       <c r="A53" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B53">
         <v>0.003859289338069338</v>
@@ -2865,36 +2711,33 @@
         <v>0.1000706622423211</v>
       </c>
       <c r="E53">
-        <v>0.03479349689457356</v>
+        <v>0.03057006608467727</v>
       </c>
       <c r="F53">
-        <v>0.03057006608467727</v>
+        <v>-0.04172138544797654</v>
       </c>
       <c r="G53">
-        <v>-0.04172138544797654</v>
+        <v>-0.2949611845165074</v>
       </c>
       <c r="H53">
-        <v>-0.2949611845165074</v>
+        <v>-0.08673676487750992</v>
       </c>
       <c r="I53">
-        <v>-0.08673676487750992</v>
+        <v>-0.003826406843660202</v>
       </c>
       <c r="J53">
-        <v>-0.003826406843660202</v>
+        <v>0.06802178605070797</v>
       </c>
       <c r="K53">
-        <v>0.06802178605070797</v>
+        <v>0.0458105849711572</v>
       </c>
       <c r="L53">
-        <v>0.0458105849711572</v>
-      </c>
-      <c r="M53">
         <v>-0.07414809975951364</v>
       </c>
     </row>
-    <row r="54" spans="1:13">
+    <row r="54" spans="1:12">
       <c r="A54" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B54">
         <v>0.1275133202989598</v>
@@ -2906,36 +2749,33 @@
         <v>0.0002431019824777891</v>
       </c>
       <c r="E54">
-        <v>0.09614386055290236</v>
+        <v>-0.04827954187101735</v>
       </c>
       <c r="F54">
-        <v>-0.04827954187101735</v>
+        <v>-0.04603323180597441</v>
       </c>
       <c r="G54">
-        <v>-0.04603323180597441</v>
+        <v>0.1353561440523473</v>
       </c>
       <c r="H54">
-        <v>0.1353561440523473</v>
+        <v>0.1927013276693783</v>
       </c>
       <c r="I54">
-        <v>0.1927013276693783</v>
+        <v>0.1275992843880474</v>
       </c>
       <c r="J54">
-        <v>0.1275992843880474</v>
+        <v>0.04492196413767946</v>
       </c>
       <c r="K54">
-        <v>0.04492196413767946</v>
+        <v>0.03716332262456445</v>
       </c>
       <c r="L54">
-        <v>0.03716332262456445</v>
-      </c>
-      <c r="M54">
         <v>0.06207763045989267</v>
       </c>
     </row>
-    <row r="55" spans="1:13">
+    <row r="55" spans="1:12">
       <c r="A55" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B55">
         <v>0.1804070143938126</v>
@@ -2947,36 +2787,33 @@
         <v>0.04359888405431711</v>
       </c>
       <c r="E55">
-        <v>0.1950765650545834</v>
+        <v>-0.0767880261999947</v>
       </c>
       <c r="F55">
-        <v>-0.0767880261999947</v>
+        <v>0.02083776615315758</v>
       </c>
       <c r="G55">
-        <v>0.02083776615315758</v>
+        <v>0.1059728855483649</v>
       </c>
       <c r="H55">
-        <v>0.1059728855483649</v>
+        <v>-0.1670849645865866</v>
       </c>
       <c r="I55">
-        <v>-0.1670849645865866</v>
+        <v>0.109012483977029</v>
       </c>
       <c r="J55">
-        <v>0.109012483977029</v>
+        <v>0.09869283116002325</v>
       </c>
       <c r="K55">
-        <v>0.09869283116002325</v>
+        <v>0.1403242455838569</v>
       </c>
       <c r="L55">
-        <v>0.1403242455838569</v>
-      </c>
-      <c r="M55">
         <v>0.009458819865323598</v>
       </c>
     </row>
-    <row r="56" spans="1:13">
+    <row r="56" spans="1:12">
       <c r="A56" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B56">
         <v>0.06695828278916371</v>
@@ -2988,36 +2825,33 @@
         <v>-0.05944241676968964</v>
       </c>
       <c r="E56">
-        <v>0.0318980222992109</v>
+        <v>-0.0163803826313611</v>
       </c>
       <c r="F56">
-        <v>-0.0163803826313611</v>
+        <v>0.1213109231665923</v>
       </c>
       <c r="G56">
-        <v>0.1213109231665923</v>
+        <v>0.0492710490067827</v>
       </c>
       <c r="H56">
-        <v>0.0492710490067827</v>
+        <v>0.2027851694544891</v>
       </c>
       <c r="I56">
-        <v>0.2027851694544891</v>
+        <v>-0.1365619396444879</v>
       </c>
       <c r="J56">
-        <v>-0.1365619396444879</v>
+        <v>-0.09654482235580897</v>
       </c>
       <c r="K56">
-        <v>-0.09654482235580897</v>
+        <v>-0.1077430995421582</v>
       </c>
       <c r="L56">
-        <v>-0.1077430995421582</v>
-      </c>
-      <c r="M56">
         <v>-0.02864917423756363</v>
       </c>
     </row>
-    <row r="57" spans="1:13">
+    <row r="57" spans="1:12">
       <c r="A57" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B57">
         <v>-0.01580654894348221</v>
@@ -3029,36 +2863,33 @@
         <v>0.08183942598361416</v>
       </c>
       <c r="E57">
-        <v>-0.0002012679890057711</v>
+        <v>-0.009124907777001035</v>
       </c>
       <c r="F57">
-        <v>-0.009124907777001035</v>
+        <v>0.07196059964508406</v>
       </c>
       <c r="G57">
-        <v>0.07196059964508406</v>
+        <v>0.2452744683699807</v>
       </c>
       <c r="H57">
-        <v>0.2452744683699807</v>
+        <v>0.1495044201488023</v>
       </c>
       <c r="I57">
-        <v>0.1495044201488023</v>
+        <v>0.08802258014133724</v>
       </c>
       <c r="J57">
-        <v>0.08802258014133724</v>
+        <v>0.04280225382590253</v>
       </c>
       <c r="K57">
-        <v>0.04280225382590253</v>
+        <v>0.1513561810181461</v>
       </c>
       <c r="L57">
-        <v>0.1513561810181461</v>
-      </c>
-      <c r="M57">
         <v>-0.07427358990832289</v>
       </c>
     </row>
-    <row r="58" spans="1:13">
+    <row r="58" spans="1:12">
       <c r="A58" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B58">
         <v>-0.1499523185897749</v>
@@ -3070,36 +2901,33 @@
         <v>0.02294469705254798</v>
       </c>
       <c r="E58">
-        <v>-0.1570399813501133</v>
+        <v>-0.0594404274181386</v>
       </c>
       <c r="F58">
-        <v>-0.0594404274181386</v>
+        <v>0.0535667093726695</v>
       </c>
       <c r="G58">
-        <v>0.0535667093726695</v>
+        <v>-0.01655210202873181</v>
       </c>
       <c r="H58">
-        <v>-0.01655210202873181</v>
+        <v>-0.01421286005863998</v>
       </c>
       <c r="I58">
-        <v>-0.01421286005863998</v>
+        <v>0.1692379263933228</v>
       </c>
       <c r="J58">
-        <v>0.1692379263933228</v>
+        <v>0.1161392205474208</v>
       </c>
       <c r="K58">
-        <v>0.1161392205474208</v>
+        <v>0.08901847418325648</v>
       </c>
       <c r="L58">
-        <v>0.08901847418325648</v>
-      </c>
-      <c r="M58">
         <v>-0.05603372684444707</v>
       </c>
     </row>
-    <row r="59" spans="1:13">
+    <row r="59" spans="1:12">
       <c r="A59" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B59">
         <v>0.07187333435230547</v>
@@ -3111,36 +2939,33 @@
         <v>-0.03170565660476576</v>
       </c>
       <c r="E59">
-        <v>0.1024358473152618</v>
+        <v>-0.009998972319142929</v>
       </c>
       <c r="F59">
-        <v>-0.009998972319142929</v>
+        <v>-0.1332973558796855</v>
       </c>
       <c r="G59">
-        <v>-0.1332973558796855</v>
+        <v>0.003817460821997853</v>
       </c>
       <c r="H59">
-        <v>0.003817460821997853</v>
+        <v>0.04177201548072151</v>
       </c>
       <c r="I59">
-        <v>0.04177201548072151</v>
+        <v>-0.05774395595030235</v>
       </c>
       <c r="J59">
-        <v>-0.05774395595030235</v>
+        <v>-0.08785957699371227</v>
       </c>
       <c r="K59">
-        <v>-0.08785957699371227</v>
+        <v>-0.08686816693603916</v>
       </c>
       <c r="L59">
-        <v>-0.08686816693603916</v>
-      </c>
-      <c r="M59">
         <v>-0.1217762831682423</v>
       </c>
     </row>
-    <row r="60" spans="1:13">
+    <row r="60" spans="1:12">
       <c r="A60" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B60">
         <v>0.07621505079940682</v>
@@ -3152,36 +2977,33 @@
         <v>0.004885132988124319</v>
       </c>
       <c r="E60">
-        <v>0.04204573523997146</v>
+        <v>-0.1239431044160977</v>
       </c>
       <c r="F60">
-        <v>-0.1239431044160977</v>
+        <v>0.2462748833376289</v>
       </c>
       <c r="G60">
-        <v>0.2462748833376289</v>
+        <v>0.006559664467293169</v>
       </c>
       <c r="H60">
-        <v>0.006559664467293169</v>
+        <v>0.118453992404846</v>
       </c>
       <c r="I60">
-        <v>0.118453992404846</v>
+        <v>0.07460988637964316</v>
       </c>
       <c r="J60">
-        <v>0.07460988637964316</v>
+        <v>-0.02135312447056936</v>
       </c>
       <c r="K60">
-        <v>-0.02135312447056936</v>
+        <v>0.02738446058959809</v>
       </c>
       <c r="L60">
-        <v>0.02738446058959809</v>
-      </c>
-      <c r="M60">
         <v>0.1075741302861406</v>
       </c>
     </row>
-    <row r="61" spans="1:13">
+    <row r="61" spans="1:12">
       <c r="A61" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B61">
         <v>-0.0290241193392804</v>
@@ -3193,36 +3015,33 @@
         <v>-0.03234574772894039</v>
       </c>
       <c r="E61">
-        <v>-0.01561247817181632</v>
+        <v>0.04159015239424768</v>
       </c>
       <c r="F61">
-        <v>0.04159015239424768</v>
+        <v>0.2166837069848979</v>
       </c>
       <c r="G61">
-        <v>0.2166837069848979</v>
+        <v>0.04046405021807287</v>
       </c>
       <c r="H61">
-        <v>0.04046405021807287</v>
+        <v>0.07944215214163552</v>
       </c>
       <c r="I61">
-        <v>0.07944215214163552</v>
+        <v>-0.1543473218757452</v>
       </c>
       <c r="J61">
-        <v>-0.1543473218757452</v>
+        <v>-0.05269628595907871</v>
       </c>
       <c r="K61">
-        <v>-0.05269628595907871</v>
+        <v>-0.07466679421962397</v>
       </c>
       <c r="L61">
-        <v>-0.07466679421962397</v>
-      </c>
-      <c r="M61">
         <v>0.0348339526756325</v>
       </c>
     </row>
-    <row r="62" spans="1:13">
+    <row r="62" spans="1:12">
       <c r="A62" s="1" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B62">
         <v>0.05359538006978548</v>
@@ -3234,36 +3053,33 @@
         <v>-0.08251003004444346</v>
       </c>
       <c r="E62">
-        <v>0.04394753969364418</v>
+        <v>0.07157601790233059</v>
       </c>
       <c r="F62">
-        <v>0.07157601790233059</v>
+        <v>-0.02828310411456103</v>
       </c>
       <c r="G62">
-        <v>-0.02828310411456103</v>
+        <v>0.1023155672536724</v>
       </c>
       <c r="H62">
-        <v>0.1023155672536724</v>
+        <v>-0.01979361629825682</v>
       </c>
       <c r="I62">
-        <v>-0.01979361629825682</v>
+        <v>0.2229329857830091</v>
       </c>
       <c r="J62">
-        <v>0.2229329857830091</v>
+        <v>-0.07190314268595444</v>
       </c>
       <c r="K62">
-        <v>-0.07190314268595444</v>
+        <v>-0.07941422225575412</v>
       </c>
       <c r="L62">
-        <v>-0.07941422225575412</v>
-      </c>
-      <c r="M62">
         <v>-0.08979986399291295</v>
       </c>
     </row>
-    <row r="63" spans="1:13">
+    <row r="63" spans="1:12">
       <c r="A63" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B63">
         <v>0.08302555850560145</v>
@@ -3275,36 +3091,33 @@
         <v>-0.01792533346043435</v>
       </c>
       <c r="E63">
-        <v>0.1185092760738709</v>
+        <v>0.07184808418628474</v>
       </c>
       <c r="F63">
-        <v>0.07184808418628474</v>
+        <v>0.08013594342018893</v>
       </c>
       <c r="G63">
-        <v>0.08013594342018893</v>
+        <v>0.1052411767949841</v>
       </c>
       <c r="H63">
-        <v>0.1052411767949841</v>
+        <v>-0.0938865612772819</v>
       </c>
       <c r="I63">
-        <v>-0.0938865612772819</v>
+        <v>-0.1225487962160798</v>
       </c>
       <c r="J63">
-        <v>-0.1225487962160798</v>
+        <v>-0.007183541970215757</v>
       </c>
       <c r="K63">
-        <v>-0.007183541970215757</v>
+        <v>-0.02906642073831556</v>
       </c>
       <c r="L63">
-        <v>-0.02906642073831556</v>
-      </c>
-      <c r="M63">
         <v>0.06978099710242081</v>
       </c>
     </row>
-    <row r="64" spans="1:13">
+    <row r="64" spans="1:12">
       <c r="A64" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B64">
         <v>-0.01708480493619469</v>
@@ -3316,36 +3129,33 @@
         <v>0.04970072257016156</v>
       </c>
       <c r="E64">
-        <v>-0.01990822949280346</v>
+        <v>-0.0289875368732524</v>
       </c>
       <c r="F64">
-        <v>-0.0289875368732524</v>
+        <v>0.02867316445657586</v>
       </c>
       <c r="G64">
-        <v>0.02867316445657586</v>
+        <v>-0.1779273586296206</v>
       </c>
       <c r="H64">
-        <v>-0.1779273586296206</v>
+        <v>-0.1360585610152603</v>
       </c>
       <c r="I64">
-        <v>-0.1360585610152603</v>
+        <v>0.09987416815532324</v>
       </c>
       <c r="J64">
-        <v>0.09987416815532324</v>
+        <v>0.09655970131960601</v>
       </c>
       <c r="K64">
-        <v>0.09655970131960601</v>
+        <v>0.09430565937831936</v>
       </c>
       <c r="L64">
-        <v>0.09430565937831936</v>
-      </c>
-      <c r="M64">
         <v>0.03077165866675369</v>
       </c>
     </row>
-    <row r="65" spans="1:13">
+    <row r="65" spans="1:12">
       <c r="A65" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B65">
         <v>0.0224686478859577</v>
@@ -3357,36 +3167,33 @@
         <v>0.03575872616385478</v>
       </c>
       <c r="E65">
-        <v>-0.001976817967860534</v>
+        <v>0.09089655347179892</v>
       </c>
       <c r="F65">
-        <v>0.09089655347179892</v>
+        <v>-0.2380208393567713</v>
       </c>
       <c r="G65">
-        <v>-0.2380208393567713</v>
+        <v>-0.1165806788925603</v>
       </c>
       <c r="H65">
-        <v>-0.1165806788925603</v>
+        <v>-0.04798077521387345</v>
       </c>
       <c r="I65">
-        <v>-0.04798077521387345</v>
+        <v>0.02144274149786352</v>
       </c>
       <c r="J65">
-        <v>0.02144274149786352</v>
+        <v>0.03609786242267088</v>
       </c>
       <c r="K65">
-        <v>0.03609786242267088</v>
+        <v>0.05055067060659901</v>
       </c>
       <c r="L65">
-        <v>0.05055067060659901</v>
-      </c>
-      <c r="M65">
         <v>0.009461927481126509</v>
       </c>
     </row>
-    <row r="66" spans="1:13">
+    <row r="66" spans="1:12">
       <c r="A66" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B66">
         <v>-0.06521763831137983</v>
@@ -3398,36 +3205,33 @@
         <v>-0.004240175959648873</v>
       </c>
       <c r="E66">
-        <v>-0.05092411778915329</v>
+        <v>-0.05395752042437252</v>
       </c>
       <c r="F66">
-        <v>-0.05395752042437252</v>
+        <v>-0.09266999001378151</v>
       </c>
       <c r="G66">
-        <v>-0.09266999001378151</v>
+        <v>0.1397305949041134</v>
       </c>
       <c r="H66">
-        <v>0.1397305949041134</v>
+        <v>-0.04848681212706385</v>
       </c>
       <c r="I66">
-        <v>-0.04848681212706385</v>
+        <v>0.03499735692654049</v>
       </c>
       <c r="J66">
-        <v>0.03499735692654049</v>
+        <v>-0.08226307599982619</v>
       </c>
       <c r="K66">
-        <v>-0.08226307599982619</v>
+        <v>-0.01009420656651727</v>
       </c>
       <c r="L66">
-        <v>-0.01009420656651727</v>
-      </c>
-      <c r="M66">
         <v>0.004111606379692212</v>
       </c>
     </row>
-    <row r="67" spans="1:13">
+    <row r="67" spans="1:12">
       <c r="A67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B67">
         <v>-0.0254191610477732</v>
@@ -3439,36 +3243,33 @@
         <v>0.01496009439454404</v>
       </c>
       <c r="E67">
-        <v>-0.02104132716080098</v>
+        <v>0.1401786958715014</v>
       </c>
       <c r="F67">
-        <v>0.1401786958715014</v>
+        <v>-0.03830310150077132</v>
       </c>
       <c r="G67">
-        <v>-0.03830310150077132</v>
+        <v>0.02660224919406962</v>
       </c>
       <c r="H67">
-        <v>0.02660224919406962</v>
+        <v>0.006981938867118842</v>
       </c>
       <c r="I67">
-        <v>0.006981938867118842</v>
+        <v>0.03496386178853328</v>
       </c>
       <c r="J67">
-        <v>0.03496386178853328</v>
+        <v>-0.002005806953830458</v>
       </c>
       <c r="K67">
-        <v>-0.002005806953830458</v>
+        <v>-0.05895683320128731</v>
       </c>
       <c r="L67">
-        <v>-0.05895683320128731</v>
-      </c>
-      <c r="M67">
         <v>-0.01893547700220388</v>
       </c>
     </row>
-    <row r="68" spans="1:13">
+    <row r="68" spans="1:12">
       <c r="A68" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B68">
         <v>-0.02068686161908717</v>
@@ -3480,36 +3281,33 @@
         <v>0.004649155373860125</v>
       </c>
       <c r="E68">
-        <v>-0.02783401951219622</v>
+        <v>-0.1035505604125868</v>
       </c>
       <c r="F68">
-        <v>-0.1035505604125868</v>
+        <v>-0.02817087696669596</v>
       </c>
       <c r="G68">
-        <v>-0.02817087696669596</v>
+        <v>-0.0646199245321375</v>
       </c>
       <c r="H68">
-        <v>-0.0646199245321375</v>
+        <v>-0.1687518046594567</v>
       </c>
       <c r="I68">
-        <v>-0.1687518046594567</v>
+        <v>-0.008139014803143496</v>
       </c>
       <c r="J68">
-        <v>-0.008139014803143496</v>
+        <v>0.002322145860881974</v>
       </c>
       <c r="K68">
-        <v>0.002322145860881974</v>
+        <v>0.01024344151663437</v>
       </c>
       <c r="L68">
-        <v>0.01024344151663437</v>
-      </c>
-      <c r="M68">
         <v>0.02536260984805505</v>
       </c>
     </row>
-    <row r="69" spans="1:13">
+    <row r="69" spans="1:12">
       <c r="A69" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B69">
         <v>-0.04833496977287766</v>
@@ -3521,36 +3319,33 @@
         <v>-0.02491472845124143</v>
       </c>
       <c r="E69">
-        <v>-0.04867091069603324</v>
+        <v>-0.0437396483833643</v>
       </c>
       <c r="F69">
-        <v>-0.0437396483833643</v>
+        <v>-0.02455785078166395</v>
       </c>
       <c r="G69">
-        <v>-0.02455785078166395</v>
+        <v>-0.01179181694722375</v>
       </c>
       <c r="H69">
-        <v>-0.01179181694722375</v>
+        <v>-0.02809600144721269</v>
       </c>
       <c r="I69">
-        <v>-0.02809600144721269</v>
+        <v>0.03493778961547012</v>
       </c>
       <c r="J69">
-        <v>0.03493778961547012</v>
+        <v>-0.02649444577650506</v>
       </c>
       <c r="K69">
-        <v>-0.02649444577650506</v>
+        <v>-0.04715630848270758</v>
       </c>
       <c r="L69">
-        <v>-0.04715630848270758</v>
-      </c>
-      <c r="M69">
         <v>0.1743300904261194</v>
       </c>
     </row>
-    <row r="70" spans="1:13">
+    <row r="70" spans="1:12">
       <c r="A70" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B70">
         <v>0.08590665464247982</v>
@@ -3562,36 +3357,33 @@
         <v>0.02066040863350338</v>
       </c>
       <c r="E70">
-        <v>0.09413328477279048</v>
+        <v>-0.06146460506615981</v>
       </c>
       <c r="F70">
-        <v>-0.06146460506615981</v>
+        <v>0.08724155307535053</v>
       </c>
       <c r="G70">
-        <v>0.08724155307535053</v>
+        <v>-0.08273716367669159</v>
       </c>
       <c r="H70">
-        <v>-0.08273716367669159</v>
+        <v>0.01376694783356136</v>
       </c>
       <c r="I70">
-        <v>0.01376694783356136</v>
+        <v>0.04772391641836826</v>
       </c>
       <c r="J70">
-        <v>0.04772391641836826</v>
+        <v>0.01504272482701552</v>
       </c>
       <c r="K70">
-        <v>0.01504272482701552</v>
+        <v>0.01092513417779228</v>
       </c>
       <c r="L70">
-        <v>0.01092513417779228</v>
-      </c>
-      <c r="M70">
         <v>-0.07410797215372167</v>
       </c>
     </row>
-    <row r="71" spans="1:13">
+    <row r="71" spans="1:12">
       <c r="A71" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B71">
         <v>-0.06038795458813606</v>
@@ -3603,36 +3395,33 @@
         <v>0.03841265193968901</v>
       </c>
       <c r="E71">
-        <v>-0.005141399500418586</v>
+        <v>-0.06907259405246524</v>
       </c>
       <c r="F71">
-        <v>-0.06907259405246524</v>
+        <v>0.1283598151925704</v>
       </c>
       <c r="G71">
-        <v>0.1283598151925704</v>
+        <v>0.08438325458336027</v>
       </c>
       <c r="H71">
-        <v>0.08438325458336027</v>
+        <v>0.04456734564629805</v>
       </c>
       <c r="I71">
-        <v>0.04456734564629805</v>
+        <v>0.04549606244809645</v>
       </c>
       <c r="J71">
-        <v>0.04549606244809645</v>
+        <v>0.06112007960760923</v>
       </c>
       <c r="K71">
-        <v>0.06112007960760923</v>
+        <v>0.042659111956314</v>
       </c>
       <c r="L71">
-        <v>0.042659111956314</v>
-      </c>
-      <c r="M71">
         <v>-0.1454948880797824</v>
       </c>
     </row>
-    <row r="72" spans="1:13">
+    <row r="72" spans="1:12">
       <c r="A72" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B72">
         <v>0.08984805839106791</v>
@@ -3644,36 +3433,33 @@
         <v>-0.02671753021789325</v>
       </c>
       <c r="E72">
-        <v>0.09395551904383614</v>
+        <v>0.04283861559639579</v>
       </c>
       <c r="F72">
-        <v>0.04283861559639579</v>
+        <v>0.05227255201053937</v>
       </c>
       <c r="G72">
-        <v>0.05227255201053937</v>
+        <v>-0.01091461141173822</v>
       </c>
       <c r="H72">
-        <v>-0.01091461141173822</v>
+        <v>0.07486011514821467</v>
       </c>
       <c r="I72">
-        <v>0.07486011514821467</v>
+        <v>0.006417477503604552</v>
       </c>
       <c r="J72">
-        <v>0.006417477503604552</v>
+        <v>-0.09077593252194571</v>
       </c>
       <c r="K72">
-        <v>-0.09077593252194571</v>
+        <v>-0.05123307700277335</v>
       </c>
       <c r="L72">
-        <v>-0.05123307700277335</v>
-      </c>
-      <c r="M72">
         <v>0.08858438251504186</v>
       </c>
     </row>
-    <row r="73" spans="1:13">
+    <row r="73" spans="1:12">
       <c r="A73" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B73">
         <v>0.05111909690523131</v>
@@ -3685,36 +3471,33 @@
         <v>-0.01137936548298679</v>
       </c>
       <c r="E73">
-        <v>0.06444075827760365</v>
+        <v>0.09938486009168468</v>
       </c>
       <c r="F73">
-        <v>0.09938486009168468</v>
+        <v>0.0626612318142783</v>
       </c>
       <c r="G73">
-        <v>0.0626612318142783</v>
+        <v>-0.03761242948292209</v>
       </c>
       <c r="H73">
-        <v>-0.03761242948292209</v>
+        <v>0.05188294187968001</v>
       </c>
       <c r="I73">
-        <v>0.05188294187968001</v>
+        <v>0.04441699604543103</v>
       </c>
       <c r="J73">
-        <v>0.04441699604543103</v>
+        <v>0.006023784711752356</v>
       </c>
       <c r="K73">
-        <v>0.006023784711752356</v>
+        <v>0.002285577802372263</v>
       </c>
       <c r="L73">
-        <v>0.002285577802372263</v>
-      </c>
-      <c r="M73">
         <v>-0.06867422255571221</v>
       </c>
     </row>
-    <row r="74" spans="1:13">
+    <row r="74" spans="1:12">
       <c r="A74" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B74">
         <v>0.05404786412119611</v>
@@ -3726,36 +3509,33 @@
         <v>0.004881515086799126</v>
       </c>
       <c r="E74">
-        <v>0.03522054454731194</v>
+        <v>-0.004991690897241163</v>
       </c>
       <c r="F74">
-        <v>-0.004991690897241163</v>
+        <v>0.1181799398092425</v>
       </c>
       <c r="G74">
-        <v>0.1181799398092425</v>
+        <v>0.04358061695933491</v>
       </c>
       <c r="H74">
-        <v>0.04358061695933491</v>
+        <v>0.02434133138615735</v>
       </c>
       <c r="I74">
-        <v>0.02434133138615735</v>
+        <v>0.02621995561541191</v>
       </c>
       <c r="J74">
-        <v>0.02621995561541191</v>
+        <v>0.02746389833017915</v>
       </c>
       <c r="K74">
-        <v>0.02746389833017915</v>
+        <v>-0.01592669993357809</v>
       </c>
       <c r="L74">
-        <v>-0.01592669993357809</v>
-      </c>
-      <c r="M74">
         <v>-0.02235067367828592</v>
       </c>
     </row>
-    <row r="75" spans="1:13">
+    <row r="75" spans="1:12">
       <c r="A75" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B75">
         <v>0.05127587263300537</v>
@@ -3767,36 +3547,33 @@
         <v>0.0256652970845801</v>
       </c>
       <c r="E75">
-        <v>0.05060877511756967</v>
+        <v>0.02552629333894885</v>
       </c>
       <c r="F75">
-        <v>0.02552629333894885</v>
+        <v>-0.004773278752657539</v>
       </c>
       <c r="G75">
-        <v>-0.004773278752657539</v>
+        <v>-0.02408948872101924</v>
       </c>
       <c r="H75">
-        <v>-0.02408948872101924</v>
+        <v>-0.1631437342666162</v>
       </c>
       <c r="I75">
-        <v>-0.1631437342666162</v>
+        <v>0.06457887895620562</v>
       </c>
       <c r="J75">
-        <v>0.06457887895620562</v>
+        <v>-0.007571350485166661</v>
       </c>
       <c r="K75">
-        <v>-0.007571350485166661</v>
+        <v>0.04055337097012268</v>
       </c>
       <c r="L75">
-        <v>0.04055337097012268</v>
-      </c>
-      <c r="M75">
         <v>0.04245779697738072</v>
       </c>
     </row>
-    <row r="76" spans="1:13">
+    <row r="76" spans="1:12">
       <c r="A76" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B76">
         <v>0.06890459659889281</v>
@@ -3808,36 +3585,33 @@
         <v>0.02472435319865429</v>
       </c>
       <c r="E76">
-        <v>0.03208044378941377</v>
+        <v>0.006886800562951656</v>
       </c>
       <c r="F76">
-        <v>0.006886800562951656</v>
+        <v>-0.1422015630045297</v>
       </c>
       <c r="G76">
-        <v>-0.1422015630045297</v>
+        <v>0.01412262880562709</v>
       </c>
       <c r="H76">
-        <v>0.01412262880562709</v>
+        <v>0.08927596773005675</v>
       </c>
       <c r="I76">
-        <v>0.08927596773005675</v>
+        <v>-0.04402852692807624</v>
       </c>
       <c r="J76">
-        <v>-0.04402852692807624</v>
+        <v>0.06936388664574888</v>
       </c>
       <c r="K76">
-        <v>0.06936388664574888</v>
+        <v>0.008405372857957172</v>
       </c>
       <c r="L76">
-        <v>0.008405372857957172</v>
-      </c>
-      <c r="M76">
         <v>0.05634491624371307</v>
       </c>
     </row>
-    <row r="77" spans="1:13">
+    <row r="77" spans="1:12">
       <c r="A77" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B77">
         <v>-0.0489137621055038</v>
@@ -3849,36 +3623,33 @@
         <v>-0.01770624521082453</v>
       </c>
       <c r="E77">
-        <v>-0.04851503909439003</v>
+        <v>0.02904520866311255</v>
       </c>
       <c r="F77">
-        <v>0.02904520866311255</v>
+        <v>-0.04769780901479503</v>
       </c>
       <c r="G77">
-        <v>-0.04769780901479503</v>
+        <v>-0.1159899863675355</v>
       </c>
       <c r="H77">
-        <v>-0.1159899863675355</v>
+        <v>-0.03629292530058947</v>
       </c>
       <c r="I77">
-        <v>-0.03629292530058947</v>
+        <v>0.01899126822530128</v>
       </c>
       <c r="J77">
-        <v>0.01899126822530128</v>
+        <v>-0.0147897459141193</v>
       </c>
       <c r="K77">
-        <v>-0.0147897459141193</v>
+        <v>-0.05250549737793087</v>
       </c>
       <c r="L77">
-        <v>-0.05250549737793087</v>
-      </c>
-      <c r="M77">
         <v>0.06998850185848315</v>
       </c>
     </row>
-    <row r="78" spans="1:13">
+    <row r="78" spans="1:12">
       <c r="A78" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B78">
         <v>0.05215275622278437</v>
@@ -3890,36 +3661,33 @@
         <v>0.005533880627289989</v>
       </c>
       <c r="E78">
-        <v>0.06602912444319475</v>
+        <v>-0.1141133067674218</v>
       </c>
       <c r="F78">
-        <v>-0.1141133067674218</v>
+        <v>0.0146764306140259</v>
       </c>
       <c r="G78">
-        <v>0.0146764306140259</v>
+        <v>0.02444566174605378</v>
       </c>
       <c r="H78">
-        <v>0.02444566174605378</v>
+        <v>-0.0161690693067511</v>
       </c>
       <c r="I78">
-        <v>-0.0161690693067511</v>
+        <v>-0.1029019497125381</v>
       </c>
       <c r="J78">
-        <v>-0.1029019497125381</v>
+        <v>-0.06198755099345732</v>
       </c>
       <c r="K78">
-        <v>-0.06198755099345732</v>
+        <v>-0.00620642911529723</v>
       </c>
       <c r="L78">
-        <v>-0.00620642911529723</v>
-      </c>
-      <c r="M78">
         <v>-0.07165009182814241</v>
       </c>
     </row>
-    <row r="79" spans="1:13">
+    <row r="79" spans="1:12">
       <c r="A79" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B79">
         <v>0.05439135462157374</v>
@@ -3931,36 +3699,33 @@
         <v>-0.00500190508561893</v>
       </c>
       <c r="E79">
-        <v>0.06740724998527181</v>
+        <v>0.08426034361774004</v>
       </c>
       <c r="F79">
-        <v>0.08426034361774004</v>
+        <v>0.1142105960198299</v>
       </c>
       <c r="G79">
-        <v>0.1142105960198299</v>
+        <v>0.01091713899534841</v>
       </c>
       <c r="H79">
-        <v>0.01091713899534841</v>
+        <v>0.09363362537498876</v>
       </c>
       <c r="I79">
-        <v>0.09363362537498876</v>
+        <v>0.01882050781186617</v>
       </c>
       <c r="J79">
-        <v>0.01882050781186617</v>
+        <v>-0.03099410333456021</v>
       </c>
       <c r="K79">
-        <v>-0.03099410333456021</v>
+        <v>0.005471044843892159</v>
       </c>
       <c r="L79">
-        <v>0.005471044843892159</v>
-      </c>
-      <c r="M79">
         <v>0.1278333715098849</v>
       </c>
     </row>
-    <row r="80" spans="1:13">
+    <row r="80" spans="1:12">
       <c r="A80" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B80">
         <v>-0.02256566512244529</v>
@@ -3972,36 +3737,33 @@
         <v>-0.01230761245389544</v>
       </c>
       <c r="E80">
-        <v>0.03168633771648022</v>
+        <v>-0.1638269741577902</v>
       </c>
       <c r="F80">
-        <v>-0.1638269741577902</v>
+        <v>0.08083929542358659</v>
       </c>
       <c r="G80">
-        <v>0.08083929542358659</v>
+        <v>0.06616586079694664</v>
       </c>
       <c r="H80">
-        <v>0.06616586079694664</v>
+        <v>0.04325852039063438</v>
       </c>
       <c r="I80">
-        <v>0.04325852039063438</v>
+        <v>0.02679944158092606</v>
       </c>
       <c r="J80">
-        <v>0.02679944158092606</v>
+        <v>0.01007147022416266</v>
       </c>
       <c r="K80">
-        <v>0.01007147022416266</v>
+        <v>0.005502245342065226</v>
       </c>
       <c r="L80">
-        <v>0.005502245342065226</v>
-      </c>
-      <c r="M80">
         <v>0.02647567398402728</v>
       </c>
     </row>
-    <row r="81" spans="1:13">
+    <row r="81" spans="1:12">
       <c r="A81" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B81">
         <v>0.1008006124101133</v>
@@ -4013,36 +3775,33 @@
         <v>-0.03825817369711437</v>
       </c>
       <c r="E81">
-        <v>0.02356346683105937</v>
+        <v>0.01839240717089652</v>
       </c>
       <c r="F81">
-        <v>0.01839240717089652</v>
+        <v>-0.04114055347807533</v>
       </c>
       <c r="G81">
-        <v>-0.04114055347807533</v>
+        <v>-0.009530364850693918</v>
       </c>
       <c r="H81">
-        <v>-0.009530364850693918</v>
+        <v>-0.01400365190013897</v>
       </c>
       <c r="I81">
-        <v>-0.01400365190013897</v>
+        <v>-0.03143233292622849</v>
       </c>
       <c r="J81">
-        <v>-0.03143233292622849</v>
+        <v>-0.06329860447132063</v>
       </c>
       <c r="K81">
-        <v>-0.06329860447132063</v>
+        <v>-0.01833559027672882</v>
       </c>
       <c r="L81">
-        <v>-0.01833559027672882</v>
-      </c>
-      <c r="M81">
         <v>-0.05618082839794347</v>
       </c>
     </row>
-    <row r="82" spans="1:13">
+    <row r="82" spans="1:12">
       <c r="A82" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B82">
         <v>-0.0754678880692925</v>
@@ -4054,36 +3813,33 @@
         <v>-0.02230395487938619</v>
       </c>
       <c r="E82">
-        <v>-0.06756424205410827</v>
+        <v>0.006288596478268182</v>
       </c>
       <c r="F82">
-        <v>0.006288596478268182</v>
+        <v>0.05819376150263444</v>
       </c>
       <c r="G82">
-        <v>0.05819376150263444</v>
+        <v>-0.04978244838628099</v>
       </c>
       <c r="H82">
-        <v>-0.04978244838628099</v>
+        <v>0.04802880533112219</v>
       </c>
       <c r="I82">
-        <v>0.04802880533112219</v>
+        <v>-0.01938739472346018</v>
       </c>
       <c r="J82">
-        <v>-0.01938739472346018</v>
+        <v>-0.01358315338560967</v>
       </c>
       <c r="K82">
-        <v>-0.01358315338560967</v>
+        <v>-0.03822766441228964</v>
       </c>
       <c r="L82">
-        <v>-0.03822766441228964</v>
-      </c>
-      <c r="M82">
         <v>0.107117764760698</v>
       </c>
     </row>
-    <row r="83" spans="1:13">
+    <row r="83" spans="1:12">
       <c r="A83" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B83">
         <v>0.01501182925367761</v>
@@ -4095,36 +3851,33 @@
         <v>-0.01930753046032407</v>
       </c>
       <c r="E83">
-        <v>0.041807367466693</v>
+        <v>-0.008159504414079422</v>
       </c>
       <c r="F83">
-        <v>-0.008159504414079422</v>
+        <v>0.1465336013991481</v>
       </c>
       <c r="G83">
-        <v>0.1465336013991481</v>
+        <v>0.04704272064516068</v>
       </c>
       <c r="H83">
-        <v>0.04704272064516068</v>
+        <v>-0.05874094305137412</v>
       </c>
       <c r="I83">
-        <v>-0.05874094305137412</v>
+        <v>0.04208516064142476</v>
       </c>
       <c r="J83">
-        <v>0.04208516064142476</v>
+        <v>-0.0676431889667235</v>
       </c>
       <c r="K83">
-        <v>-0.0676431889667235</v>
+        <v>-0.0709764042082317</v>
       </c>
       <c r="L83">
-        <v>-0.0709764042082317</v>
-      </c>
-      <c r="M83">
         <v>-0.06577329368976326</v>
       </c>
     </row>
-    <row r="84" spans="1:13">
+    <row r="84" spans="1:12">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B84">
         <v>0.04824423812885037</v>
@@ -4136,36 +3889,33 @@
         <v>-0.007358507992501373</v>
       </c>
       <c r="E84">
-        <v>0.06621626561061689</v>
+        <v>0.06040428469975634</v>
       </c>
       <c r="F84">
-        <v>0.06040428469975634</v>
+        <v>0.1018731022640011</v>
       </c>
       <c r="G84">
-        <v>0.1018731022640011</v>
+        <v>0.03106259194118155</v>
       </c>
       <c r="H84">
-        <v>0.03106259194118155</v>
+        <v>-0.06713930283762881</v>
       </c>
       <c r="I84">
-        <v>-0.06713930283762881</v>
+        <v>0.1068080037037529</v>
       </c>
       <c r="J84">
-        <v>0.1068080037037529</v>
+        <v>0.04088815851027405</v>
       </c>
       <c r="K84">
-        <v>0.04088815851027405</v>
+        <v>0.01273201191277273</v>
       </c>
       <c r="L84">
-        <v>0.01273201191277273</v>
-      </c>
-      <c r="M84">
         <v>-0.01849201111905963</v>
       </c>
     </row>
-    <row r="85" spans="1:13">
+    <row r="85" spans="1:12">
       <c r="A85" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B85">
         <v>-0.1147330839826113</v>
@@ -4177,36 +3927,33 @@
         <v>0.01730636421374054</v>
       </c>
       <c r="E85">
-        <v>-0.09172618446334191</v>
+        <v>0.02093403965253415</v>
       </c>
       <c r="F85">
-        <v>0.02093403965253415</v>
+        <v>-0.09613652699711839</v>
       </c>
       <c r="G85">
-        <v>-0.09613652699711839</v>
+        <v>0.08075849071958885</v>
       </c>
       <c r="H85">
-        <v>0.08075849071958885</v>
+        <v>-0.08405934532554848</v>
       </c>
       <c r="I85">
-        <v>-0.08405934532554848</v>
+        <v>-0.005239223345271604</v>
       </c>
       <c r="J85">
-        <v>-0.005239223345271604</v>
+        <v>0.02496963451708734</v>
       </c>
       <c r="K85">
-        <v>0.02496963451708734</v>
+        <v>-0.0273134960661876</v>
       </c>
       <c r="L85">
-        <v>-0.0273134960661876</v>
-      </c>
-      <c r="M85">
         <v>-0.01684041779524748</v>
       </c>
     </row>
-    <row r="86" spans="1:13">
+    <row r="86" spans="1:12">
       <c r="A86" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B86">
         <v>-0.2486930230180522</v>
@@ -4218,36 +3965,33 @@
         <v>0.0064953979652147</v>
       </c>
       <c r="E86">
-        <v>-0.2511251562206827</v>
+        <v>0.009236452733564882</v>
       </c>
       <c r="F86">
-        <v>0.009236452733564882</v>
+        <v>-0.009431251752334724</v>
       </c>
       <c r="G86">
-        <v>-0.009431251752334724</v>
+        <v>0.3466277055996305</v>
       </c>
       <c r="H86">
-        <v>0.3466277055996305</v>
+        <v>0.05901945021736132</v>
       </c>
       <c r="I86">
-        <v>0.05901945021736132</v>
+        <v>0.07413430249417452</v>
       </c>
       <c r="J86">
-        <v>0.07413430249417452</v>
+        <v>-0.0505787534496811</v>
       </c>
       <c r="K86">
-        <v>-0.0505787534496811</v>
+        <v>-0.009532960658723777</v>
       </c>
       <c r="L86">
-        <v>-0.009532960658723777</v>
-      </c>
-      <c r="M86">
         <v>0.03001455319608581</v>
       </c>
     </row>
-    <row r="87" spans="1:13">
+    <row r="87" spans="1:12">
       <c r="A87" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B87">
         <v>-0.1147197957866539</v>
@@ -4259,36 +4003,33 @@
         <v>0.04651629045622396</v>
       </c>
       <c r="E87">
-        <v>-0.08733660290835576</v>
+        <v>0.06517975232337747</v>
       </c>
       <c r="F87">
-        <v>0.06517975232337747</v>
+        <v>-0.100699267722379</v>
       </c>
       <c r="G87">
-        <v>-0.100699267722379</v>
+        <v>-0.4502520210562224</v>
       </c>
       <c r="H87">
-        <v>-0.4502520210562224</v>
+        <v>-0.1399529991804016</v>
       </c>
       <c r="I87">
-        <v>-0.1399529991804016</v>
+        <v>0.07045224307615605</v>
       </c>
       <c r="J87">
-        <v>0.07045224307615605</v>
+        <v>-0.002635047638005261</v>
       </c>
       <c r="K87">
-        <v>-0.002635047638005261</v>
+        <v>0.09075889901386391</v>
       </c>
       <c r="L87">
-        <v>0.09075889901386391</v>
-      </c>
-      <c r="M87">
         <v>-0.0245350874314596</v>
       </c>
     </row>
-    <row r="88" spans="1:13">
+    <row r="88" spans="1:12">
       <c r="A88" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B88">
         <v>0.1693552311752917</v>
@@ -4300,36 +4041,33 @@
         <v>0.03187336784880745</v>
       </c>
       <c r="E88">
-        <v>0.1400851485835313</v>
+        <v>0</v>
       </c>
       <c r="F88">
-        <v>0</v>
+        <v>-0.1700506654389446</v>
       </c>
       <c r="G88">
-        <v>-0.1700506654389446</v>
+        <v>-0.04380262265839296</v>
       </c>
       <c r="H88">
-        <v>-0.04380262265839296</v>
+        <v>-0.04118828879184555</v>
       </c>
       <c r="I88">
-        <v>-0.04118828879184555</v>
+        <v>0.06514145760583645</v>
       </c>
       <c r="J88">
-        <v>0.06514145760583645</v>
+        <v>0.03044036071834189</v>
       </c>
       <c r="K88">
-        <v>0.03044036071834189</v>
+        <v>0.03745470387423033</v>
       </c>
       <c r="L88">
-        <v>0.03745470387423033</v>
-      </c>
-      <c r="M88">
         <v>0.02598822403979195</v>
       </c>
     </row>
-    <row r="89" spans="1:13">
+    <row r="89" spans="1:12">
       <c r="A89" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B89">
         <v>0.0618159113368133</v>
@@ -4341,36 +4079,33 @@
         <v>-0.005242177246902457</v>
       </c>
       <c r="E89">
-        <v>0.0647505684552101</v>
+        <v>0.04043730515217181</v>
       </c>
       <c r="F89">
-        <v>0.04043730515217181</v>
+        <v>-0.1552835676792501</v>
       </c>
       <c r="G89">
-        <v>-0.1552835676792501</v>
+        <v>-0.0007109847437789529</v>
       </c>
       <c r="H89">
-        <v>-0.0007109847437789529</v>
+        <v>-0.04949815828517234</v>
       </c>
       <c r="I89">
-        <v>-0.04949815828517234</v>
+        <v>0.1351739194982073</v>
       </c>
       <c r="J89">
-        <v>0.1351739194982073</v>
+        <v>0.0620216453094562</v>
       </c>
       <c r="K89">
-        <v>0.0620216453094562</v>
+        <v>-0.03067414126469581</v>
       </c>
       <c r="L89">
-        <v>-0.03067414126469581</v>
-      </c>
-      <c r="M89">
         <v>-0.132287525419712</v>
       </c>
     </row>
-    <row r="90" spans="1:13">
+    <row r="90" spans="1:12">
       <c r="A90" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B90">
         <v>0.04977168993841818</v>
@@ -4382,36 +4117,33 @@
         <v>-0.01519716100402402</v>
       </c>
       <c r="E90">
-        <v>0.03511743090352493</v>
+        <v>-0.03325164549129767</v>
       </c>
       <c r="F90">
-        <v>-0.03325164549129767</v>
+        <v>-0.2425438564695952</v>
       </c>
       <c r="G90">
-        <v>-0.2425438564695952</v>
+        <v>-0.05481825397549855</v>
       </c>
       <c r="H90">
-        <v>-0.05481825397549855</v>
+        <v>0.04783149123270292</v>
       </c>
       <c r="I90">
-        <v>0.04783149123270292</v>
+        <v>-0.1301800582645969</v>
       </c>
       <c r="J90">
-        <v>-0.1301800582645969</v>
+        <v>-0.02799416209567962</v>
       </c>
       <c r="K90">
-        <v>-0.02799416209567962</v>
+        <v>-0.03124641415648144</v>
       </c>
       <c r="L90">
-        <v>-0.03124641415648144</v>
-      </c>
-      <c r="M90">
         <v>0.01153542041463851</v>
       </c>
     </row>
-    <row r="91" spans="1:13">
+    <row r="91" spans="1:12">
       <c r="A91" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B91">
         <v>0.0608006661018079</v>
@@ -4423,36 +4155,33 @@
         <v>-0.007919910952857379</v>
       </c>
       <c r="E91">
-        <v>0.06248934009263518</v>
+        <v>-0.01563471414740203</v>
       </c>
       <c r="F91">
-        <v>-0.01563471414740203</v>
+        <v>-0.02783246888459301</v>
       </c>
       <c r="G91">
-        <v>-0.02783246888459301</v>
+        <v>-0.03322818585722032</v>
       </c>
       <c r="H91">
-        <v>-0.03322818585722032</v>
+        <v>-0.2348886527724918</v>
       </c>
       <c r="I91">
-        <v>-0.2348886527724918</v>
+        <v>0.03103747891526165</v>
       </c>
       <c r="J91">
-        <v>0.03103747891526165</v>
+        <v>0.04514295552053582</v>
       </c>
       <c r="K91">
-        <v>0.04514295552053582</v>
+        <v>-0.01068100942033423</v>
       </c>
       <c r="L91">
-        <v>-0.01068100942033423</v>
-      </c>
-      <c r="M91">
         <v>-0.08964629362508969</v>
       </c>
     </row>
-    <row r="92" spans="1:13">
+    <row r="92" spans="1:12">
       <c r="A92" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B92">
         <v>-0.1777941897602298</v>
@@ -4464,36 +4193,33 @@
         <v>0.01777069093353312</v>
       </c>
       <c r="E92">
-        <v>-0.121205782180354</v>
+        <v>-0.1317436697643855</v>
       </c>
       <c r="F92">
-        <v>-0.1317436697643855</v>
+        <v>-0.1995819637269545</v>
       </c>
       <c r="G92">
-        <v>-0.1995819637269545</v>
+        <v>-0.04813018782697975</v>
       </c>
       <c r="H92">
-        <v>-0.04813018782697975</v>
+        <v>0.1340586797445695</v>
       </c>
       <c r="I92">
-        <v>0.1340586797445695</v>
+        <v>-0.03932450980420299</v>
       </c>
       <c r="J92">
-        <v>-0.03932450980420299</v>
+        <v>-0.1137656685081234</v>
       </c>
       <c r="K92">
-        <v>-0.1137656685081234</v>
+        <v>-0.02514573536922171</v>
       </c>
       <c r="L92">
-        <v>-0.02514573536922171</v>
-      </c>
-      <c r="M92">
         <v>0.1839132801702092</v>
       </c>
     </row>
-    <row r="93" spans="1:13">
+    <row r="93" spans="1:12">
       <c r="A93" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B93">
         <v>0.08883214828561803</v>
@@ -4505,36 +4231,33 @@
         <v>0.07656103602434694</v>
       </c>
       <c r="E93">
-        <v>0.03144337181883472</v>
+        <v>0.0184957892733939</v>
       </c>
       <c r="F93">
-        <v>0.0184957892733939</v>
+        <v>-0.07218465341892699</v>
       </c>
       <c r="G93">
-        <v>-0.07218465341892699</v>
+        <v>-0.06133799764286674</v>
       </c>
       <c r="H93">
-        <v>-0.06133799764286674</v>
+        <v>-0.07120274424669937</v>
       </c>
       <c r="I93">
-        <v>-0.07120274424669937</v>
+        <v>0.138728151679496</v>
       </c>
       <c r="J93">
-        <v>0.138728151679496</v>
+        <v>0.05271166727911325</v>
       </c>
       <c r="K93">
-        <v>0.05271166727911325</v>
+        <v>0.04856072743560436</v>
       </c>
       <c r="L93">
-        <v>0.04856072743560436</v>
-      </c>
-      <c r="M93">
         <v>0.04850611360652213</v>
       </c>
     </row>
-    <row r="94" spans="1:13">
+    <row r="94" spans="1:12">
       <c r="A94" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B94">
         <v>0.001879539212008119</v>
@@ -4546,36 +4269,33 @@
         <v>0.01156652996584118</v>
       </c>
       <c r="E94">
-        <v>-0.02095430449683189</v>
+        <v>-0.03312170292680872</v>
       </c>
       <c r="F94">
-        <v>-0.03312170292680872</v>
+        <v>0.1486216383481125</v>
       </c>
       <c r="G94">
-        <v>0.1486216383481125</v>
+        <v>-0.03303537578783211</v>
       </c>
       <c r="H94">
-        <v>-0.03303537578783211</v>
+        <v>0.02446305943270577</v>
       </c>
       <c r="I94">
-        <v>0.02446305943270577</v>
+        <v>-0.008651253328418207</v>
       </c>
       <c r="J94">
-        <v>-0.008651253328418207</v>
+        <v>0.04744989163687041</v>
       </c>
       <c r="K94">
-        <v>0.04744989163687041</v>
+        <v>0.06920701407614205</v>
       </c>
       <c r="L94">
-        <v>0.06920701407614205</v>
-      </c>
-      <c r="M94">
         <v>-0.08031894531859152</v>
       </c>
     </row>
-    <row r="95" spans="1:13">
+    <row r="95" spans="1:12">
       <c r="A95" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B95">
         <v>-0.06124362524071802</v>
@@ -4587,36 +4307,33 @@
         <v>0.06317460847089595</v>
       </c>
       <c r="E95">
-        <v>-0.07551356997082159</v>
+        <v>-0.01793346787347616</v>
       </c>
       <c r="F95">
-        <v>-0.01793346787347616</v>
+        <v>0.1042510294378074</v>
       </c>
       <c r="G95">
-        <v>0.1042510294378074</v>
+        <v>0.02302005148814723</v>
       </c>
       <c r="H95">
-        <v>0.02302005148814723</v>
+        <v>-0.028930676692422</v>
       </c>
       <c r="I95">
-        <v>-0.028930676692422</v>
+        <v>0.01268903152675804</v>
       </c>
       <c r="J95">
-        <v>0.01268903152675804</v>
+        <v>0.05927414642532813</v>
       </c>
       <c r="K95">
-        <v>0.05927414642532813</v>
+        <v>0.1066138593450141</v>
       </c>
       <c r="L95">
-        <v>0.1066138593450141</v>
-      </c>
-      <c r="M95">
         <v>-0.07675582874057962</v>
       </c>
     </row>
-    <row r="96" spans="1:13">
+    <row r="96" spans="1:12">
       <c r="A96" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B96">
         <v>-0.0188702127649556</v>
@@ -4628,36 +4345,33 @@
         <v>-0.03578511018036235</v>
       </c>
       <c r="E96">
-        <v>0.00577511711517964</v>
+        <v>-0.004055832829260808</v>
       </c>
       <c r="F96">
-        <v>-0.004055832829260808</v>
+        <v>0.267961185683963</v>
       </c>
       <c r="G96">
-        <v>0.267961185683963</v>
+        <v>0.01950224323144112</v>
       </c>
       <c r="H96">
-        <v>0.01950224323144112</v>
+        <v>-0.007490671729157405</v>
       </c>
       <c r="I96">
-        <v>-0.007490671729157405</v>
+        <v>0.06923548688208836</v>
       </c>
       <c r="J96">
-        <v>0.06923548688208836</v>
+        <v>-0.05097628693522083</v>
       </c>
       <c r="K96">
-        <v>-0.05097628693522083</v>
+        <v>-0.07340180670829888</v>
       </c>
       <c r="L96">
-        <v>-0.07340180670829888</v>
-      </c>
-      <c r="M96">
         <v>0.09405025775281484</v>
       </c>
     </row>
-    <row r="97" spans="1:13">
+    <row r="97" spans="1:12">
       <c r="A97" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B97">
         <v>0.002032333263035646</v>
@@ -4669,36 +4383,33 @@
         <v>0.03070342955336436</v>
       </c>
       <c r="E97">
-        <v>-0.009090220433017215</v>
+        <v>0.06568834990992034</v>
       </c>
       <c r="F97">
-        <v>0.06568834990992034</v>
+        <v>-0.01258464522907232</v>
       </c>
       <c r="G97">
-        <v>-0.01258464522907232</v>
+        <v>0.1222556129365631</v>
       </c>
       <c r="H97">
-        <v>0.1222556129365631</v>
+        <v>-0.03988258627831964</v>
       </c>
       <c r="I97">
-        <v>-0.03988258627831964</v>
+        <v>0.06412528154182162</v>
       </c>
       <c r="J97">
-        <v>0.06412528154182162</v>
+        <v>0.0514064869848756</v>
       </c>
       <c r="K97">
-        <v>0.0514064869848756</v>
+        <v>0.06395396163089773</v>
       </c>
       <c r="L97">
-        <v>0.06395396163089773</v>
-      </c>
-      <c r="M97">
         <v>0.0258849693569001</v>
       </c>
     </row>
-    <row r="98" spans="1:13">
+    <row r="98" spans="1:12">
       <c r="A98" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B98">
         <v>0.01810749062739081</v>
@@ -4710,36 +4421,33 @@
         <v>-0.03077165866675369</v>
       </c>
       <c r="E98">
-        <v>0.03587536201802344</v>
+        <v>0.08184920639703108</v>
       </c>
       <c r="F98">
-        <v>0.08184920639703108</v>
+        <v>0.002810306299255494</v>
       </c>
       <c r="G98">
-        <v>0.002810306299255494</v>
+        <v>-0.1435099372119213</v>
       </c>
       <c r="H98">
-        <v>-0.1435099372119213</v>
+        <v>0.02828679211693608</v>
       </c>
       <c r="I98">
-        <v>0.02828679211693608</v>
+        <v>0.03218231113356662</v>
       </c>
       <c r="J98">
-        <v>0.03218231113356662</v>
+        <v>-0.03512588262053828</v>
       </c>
       <c r="K98">
-        <v>-0.03512588262053828</v>
+        <v>-0.05976108337086172</v>
       </c>
       <c r="L98">
-        <v>-0.05976108337086172</v>
-      </c>
-      <c r="M98">
         <v>0.07340572493385089</v>
       </c>
     </row>
-    <row r="99" spans="1:13">
+    <row r="99" spans="1:12">
       <c r="A99" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B99">
         <v>0.1014376600223921</v>
@@ -4751,36 +4459,33 @@
         <v>0.03611661843698233</v>
       </c>
       <c r="E99">
-        <v>0.05560881295277209</v>
+        <v>0.02846877905077694</v>
       </c>
       <c r="F99">
-        <v>0.02846877905077694</v>
+        <v>-0.3193603627518886</v>
       </c>
       <c r="G99">
-        <v>-0.3193603627518886</v>
+        <v>-0.04116912476152512</v>
       </c>
       <c r="H99">
-        <v>-0.04116912476152512</v>
+        <v>-0.01430055014219622</v>
       </c>
       <c r="I99">
-        <v>-0.01430055014219622</v>
+        <v>0.05021593521830248</v>
       </c>
       <c r="J99">
-        <v>0.05021593521830248</v>
+        <v>0.07867962638488102</v>
       </c>
       <c r="K99">
-        <v>0.07867962638488102</v>
+        <v>0.04938210509362007</v>
       </c>
       <c r="L99">
-        <v>0.04938210509362007</v>
-      </c>
-      <c r="M99">
         <v>0.02033968423712285</v>
       </c>
     </row>
-    <row r="100" spans="1:13">
+    <row r="100" spans="1:12">
       <c r="A100" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B100">
         <v>-0.1691108092357454</v>
@@ -4792,36 +4497,33 @@
         <v>0.04087727433484467</v>
       </c>
       <c r="E100">
-        <v>-0.1264569088011616</v>
+        <v>-0.02702592607450161</v>
       </c>
       <c r="F100">
-        <v>-0.02702592607450161</v>
+        <v>-0.2507168782183093</v>
       </c>
       <c r="G100">
-        <v>-0.2507168782183093</v>
+        <v>-0.1731359162897851</v>
       </c>
       <c r="H100">
-        <v>-0.1731359162897851</v>
+        <v>-0.01294348901268449</v>
       </c>
       <c r="I100">
-        <v>-0.01294348901268449</v>
+        <v>0.1627860354068558</v>
       </c>
       <c r="J100">
-        <v>0.1627860354068558</v>
+        <v>-0.01263872619833961</v>
       </c>
       <c r="K100">
-        <v>-0.01263872619833961</v>
+        <v>0.008044736123604235</v>
       </c>
       <c r="L100">
-        <v>0.008044736123604235</v>
-      </c>
-      <c r="M100">
         <v>-0.008988824568433529</v>
       </c>
     </row>
-    <row r="101" spans="1:13">
+    <row r="101" spans="1:12">
       <c r="A101" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B101">
         <v>-0.141431294627262</v>
@@ -4833,36 +4535,33 @@
         <v>-0.01194802901149661</v>
       </c>
       <c r="E101">
-        <v>-0.140828535742973</v>
+        <v>-0.07415550556575834</v>
       </c>
       <c r="F101">
-        <v>-0.07415550556575834</v>
+        <v>-0.1082135846402328</v>
       </c>
       <c r="G101">
-        <v>-0.1082135846402328</v>
+        <v>-0.08913698643080581</v>
       </c>
       <c r="H101">
-        <v>-0.08913698643080581</v>
+        <v>0.05967392021910634</v>
       </c>
       <c r="I101">
-        <v>0.05967392021910634</v>
+        <v>0.1103865889486197</v>
       </c>
       <c r="J101">
-        <v>0.1103865889486197</v>
+        <v>-0.1059166891983034</v>
       </c>
       <c r="K101">
-        <v>-0.1059166891983034</v>
+        <v>-0.09232665364382653</v>
       </c>
       <c r="L101">
-        <v>-0.09232665364382653</v>
-      </c>
-      <c r="M101">
         <v>-0.04572488950104603</v>
       </c>
     </row>
-    <row r="102" spans="1:13">
+    <row r="102" spans="1:12">
       <c r="A102" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B102">
         <v>-0.7818660832724174</v>
@@ -4874,36 +4573,33 @@
         <v>0.0122638550571379</v>
       </c>
       <c r="E102">
-        <v>-0.7982438091599007</v>
+        <v>-0.101473767511254</v>
       </c>
       <c r="F102">
-        <v>-0.101473767511254</v>
+        <v>-0.2843083535640401</v>
       </c>
       <c r="G102">
-        <v>-0.2843083535640401</v>
+        <v>-0.026475673984028</v>
       </c>
       <c r="H102">
-        <v>-0.026475673984028</v>
+        <v>0.1656558794282921</v>
       </c>
       <c r="I102">
-        <v>0.1656558794282921</v>
+        <v>-0.07252097660307566</v>
       </c>
       <c r="J102">
-        <v>-0.07252097660307566</v>
+        <v>-0.174839188505743</v>
       </c>
       <c r="K102">
-        <v>-0.174839188505743</v>
+        <v>-0.1504553942124032</v>
       </c>
       <c r="L102">
-        <v>-0.1504553942124032</v>
-      </c>
-      <c r="M102">
         <v>0.07245253840686061</v>
       </c>
     </row>
-    <row r="103" spans="1:13">
+    <row r="103" spans="1:12">
       <c r="A103" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="B103">
         <v>-0.08346653102308998</v>
@@ -4915,36 +4611,33 @@
         <v>0.06171623985855756</v>
       </c>
       <c r="E103">
-        <v>0.1054924330777127</v>
+        <v>-0.1234459832042116</v>
       </c>
       <c r="F103">
-        <v>-0.1234459832042116</v>
+        <v>-0.1632756726556335</v>
       </c>
       <c r="G103">
-        <v>-0.1632756726556335</v>
+        <v>0.1726201786893168</v>
       </c>
       <c r="H103">
-        <v>0.1726201786893168</v>
+        <v>-0.1042518680941624</v>
       </c>
       <c r="I103">
-        <v>-0.1042518680941624</v>
+        <v>-0.178377858383965</v>
       </c>
       <c r="J103">
-        <v>-0.178377858383965</v>
+        <v>0.111073047108432</v>
       </c>
       <c r="K103">
-        <v>0.111073047108432</v>
+        <v>0.05519403240240051</v>
       </c>
       <c r="L103">
-        <v>0.05519403240240051</v>
-      </c>
-      <c r="M103">
         <v>-0.07103577311675124</v>
       </c>
     </row>
-    <row r="104" spans="1:13">
+    <row r="104" spans="1:12">
       <c r="A104" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B104">
         <v>0.633268697510188</v>
@@ -4956,36 +4649,33 @@
         <v>0.03081124146407532</v>
       </c>
       <c r="E104">
-        <v>0.335114539970951</v>
+        <v>0.1026067274612048</v>
       </c>
       <c r="F104">
-        <v>0.1026067274612048</v>
+        <v>-0.3648450085167059</v>
       </c>
       <c r="G104">
-        <v>-0.3648450085167059</v>
+        <v>-0.0526714681204361</v>
       </c>
       <c r="H104">
-        <v>-0.0526714681204361</v>
+        <v>0.1232058759778374</v>
       </c>
       <c r="I104">
-        <v>0.1232058759778374</v>
+        <v>-0.009056821028480044</v>
       </c>
       <c r="J104">
-        <v>-0.009056821028480044</v>
+        <v>0.07265098609055354</v>
       </c>
       <c r="K104">
-        <v>0.07265098609055354</v>
+        <v>0.2132952423743637</v>
       </c>
       <c r="L104">
-        <v>0.2132952423743637</v>
-      </c>
-      <c r="M104">
         <v>-0.01713511700732706</v>
       </c>
     </row>
-    <row r="105" spans="1:13">
+    <row r="105" spans="1:12">
       <c r="A105" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B105">
         <v>0.1012099019315134</v>
@@ -4997,36 +4687,33 @@
         <v>0.03178827954516628</v>
       </c>
       <c r="E105">
-        <v>0.1524914657520253</v>
+        <v>-0.08443942350575551</v>
       </c>
       <c r="F105">
-        <v>-0.08443942350575551</v>
+        <v>0.5213618228772323</v>
       </c>
       <c r="G105">
-        <v>0.5213618228772323</v>
+        <v>-0.05445789910127297</v>
       </c>
       <c r="H105">
-        <v>-0.05445789910127297</v>
+        <v>0.03843547557857896</v>
       </c>
       <c r="I105">
-        <v>0.03843547557857896</v>
+        <v>0.005618716294772064</v>
       </c>
       <c r="J105">
-        <v>0.005618716294772064</v>
+        <v>-0.03483288106699245</v>
       </c>
       <c r="K105">
-        <v>-0.03483288106699245</v>
+        <v>0.005462277987268394</v>
       </c>
       <c r="L105">
-        <v>0.005462277987268394</v>
-      </c>
-      <c r="M105">
         <v>-0.06086468903640974</v>
       </c>
     </row>
-    <row r="106" spans="1:13">
+    <row r="106" spans="1:12">
       <c r="A106" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B106">
         <v>0.02514590627344448</v>
@@ -5038,36 +4725,33 @@
         <v>0.09048183061061543</v>
       </c>
       <c r="E106">
-        <v>0.0509287078853653</v>
+        <v>0.1150515398307732</v>
       </c>
       <c r="F106">
-        <v>0.1150515398307732</v>
+        <v>-0.03641331357010147</v>
       </c>
       <c r="G106">
-        <v>-0.03641331357010147</v>
+        <v>0.02704390166468129</v>
       </c>
       <c r="H106">
-        <v>0.02704390166468129</v>
+        <v>-0.04457674360066211</v>
       </c>
       <c r="I106">
-        <v>-0.04457674360066211</v>
+        <v>0.09313954057852847</v>
       </c>
       <c r="J106">
-        <v>0.09313954057852847</v>
+        <v>0.08162438613634926</v>
       </c>
       <c r="K106">
-        <v>0.08162438613634926</v>
+        <v>0.2659134882552783</v>
       </c>
       <c r="L106">
-        <v>0.2659134882552783</v>
-      </c>
-      <c r="M106">
         <v>0.08082732913395496</v>
       </c>
     </row>
-    <row r="107" spans="1:13">
+    <row r="107" spans="1:12">
       <c r="A107" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B107">
         <v>0.05648219264845755</v>
@@ -5079,36 +4763,33 @@
         <v>0.002442500705436501</v>
       </c>
       <c r="E107">
-        <v>0.04471279888648327</v>
+        <v>0.01615855728837801</v>
       </c>
       <c r="F107">
-        <v>0.01615855728837801</v>
+        <v>0.615738468901839</v>
       </c>
       <c r="G107">
-        <v>0.615738468901839</v>
+        <v>0.3797528912212771</v>
       </c>
       <c r="H107">
-        <v>0.3797528912212771</v>
+        <v>-0.06752724027046852</v>
       </c>
       <c r="I107">
-        <v>-0.06752724027046852</v>
+        <v>0.05027652701081031</v>
       </c>
       <c r="J107">
-        <v>0.05027652701081031</v>
+        <v>0.02543564800426701</v>
       </c>
       <c r="K107">
-        <v>0.02543564800426701</v>
+        <v>0.1617931297680197</v>
       </c>
       <c r="L107">
-        <v>0.1617931297680197</v>
-      </c>
-      <c r="M107">
         <v>0.02417597987602971</v>
       </c>
     </row>
-    <row r="108" spans="1:13">
+    <row r="108" spans="1:12">
       <c r="A108" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B108">
         <v>-0.05772458316731477</v>
@@ -5120,36 +4801,33 @@
         <v>-0.04156132379800503</v>
       </c>
       <c r="E108">
-        <v>-0.100513623595849</v>
+        <v>0.0380238249194349</v>
       </c>
       <c r="F108">
-        <v>0.0380238249194349</v>
+        <v>0.24534770862522</v>
       </c>
       <c r="G108">
-        <v>0.24534770862522</v>
+        <v>-0.03995101778361587</v>
       </c>
       <c r="H108">
-        <v>-0.03995101778361587</v>
+        <v>-0.000879120935739941</v>
       </c>
       <c r="I108">
-        <v>-0.000879120935739941</v>
+        <v>0.03324369452872222</v>
       </c>
       <c r="J108">
-        <v>0.03324369452872222</v>
+        <v>-0.03778965467352968</v>
       </c>
       <c r="K108">
-        <v>-0.03778965467352968</v>
+        <v>-0.1935458288427445</v>
       </c>
       <c r="L108">
-        <v>-0.1935458288427445</v>
-      </c>
-      <c r="M108">
         <v>0.06016516855772114</v>
       </c>
     </row>
-    <row r="109" spans="1:13">
+    <row r="109" spans="1:12">
       <c r="A109" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B109">
         <v>-0.1166958595665712</v>
@@ -5161,36 +4839,33 @@
         <v>-0.005365361220288634</v>
       </c>
       <c r="E109">
-        <v>-0.08907811328313597</v>
+        <v>-0.02400767908559942</v>
       </c>
       <c r="F109">
-        <v>-0.02400767908559942</v>
+        <v>0.1147755145924281</v>
       </c>
       <c r="G109">
-        <v>0.1147755145924281</v>
+        <v>0.2831208349949598</v>
       </c>
       <c r="H109">
-        <v>0.2831208349949598</v>
+        <v>0.03669740509719333</v>
       </c>
       <c r="I109">
-        <v>0.03669740509719333</v>
+        <v>-0.04899912064800471</v>
       </c>
       <c r="J109">
-        <v>-0.04899912064800471</v>
+        <v>-0.06464211510849438</v>
       </c>
       <c r="K109">
-        <v>-0.06464211510849438</v>
+        <v>0.007821506398744571</v>
       </c>
       <c r="L109">
-        <v>0.007821506398744571</v>
-      </c>
-      <c r="M109">
         <v>0.03485265632564971</v>
       </c>
     </row>
-    <row r="110" spans="1:13">
+    <row r="110" spans="1:12">
       <c r="A110" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B110">
         <v>0.2365211203014486</v>
@@ -5202,36 +4877,33 @@
         <v>-0.05569312953810179</v>
       </c>
       <c r="E110">
-        <v>0.2393489581170765</v>
+        <v>0.0388667934893494</v>
       </c>
       <c r="F110">
-        <v>0.0388667934893494</v>
+        <v>0.05096794026081719</v>
       </c>
       <c r="G110">
-        <v>0.05096794026081719</v>
+        <v>-0.1516691658236866</v>
       </c>
       <c r="H110">
-        <v>-0.1516691658236866</v>
+        <v>0.08761173369016184</v>
       </c>
       <c r="I110">
-        <v>0.08761173369016184</v>
+        <v>0.07933597541034221</v>
       </c>
       <c r="J110">
-        <v>0.07933597541034221</v>
+        <v>0.132331881170491</v>
       </c>
       <c r="K110">
-        <v>0.132331881170491</v>
+        <v>-0.0469415119530403</v>
       </c>
       <c r="L110">
-        <v>-0.0469415119530403</v>
-      </c>
-      <c r="M110">
         <v>-0.03096747984348092</v>
       </c>
     </row>
-    <row r="111" spans="1:13">
+    <row r="111" spans="1:12">
       <c r="A111" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B111">
         <v>0.06778643899646619</v>
@@ -5243,36 +4915,33 @@
         <v>0.06402098565107472</v>
       </c>
       <c r="E111">
-        <v>0.08476749413241835</v>
+        <v>0.02487523218596177</v>
       </c>
       <c r="F111">
-        <v>0.02487523218596177</v>
+        <v>0.2558077910065437</v>
       </c>
       <c r="G111">
-        <v>0.2558077910065437</v>
+        <v>-0.126714194854789</v>
       </c>
       <c r="H111">
-        <v>-0.126714194854789</v>
+        <v>-0.0436577266210465</v>
       </c>
       <c r="I111">
-        <v>-0.0436577266210465</v>
+        <v>0.02301136382663316</v>
       </c>
       <c r="J111">
-        <v>0.02301136382663316</v>
+        <v>0.1092529407052432</v>
       </c>
       <c r="K111">
-        <v>0.1092529407052432</v>
+        <v>0.155759649863656</v>
       </c>
       <c r="L111">
-        <v>0.155759649863656</v>
-      </c>
-      <c r="M111">
         <v>0.098790076182242</v>
       </c>
     </row>
-    <row r="112" spans="1:13">
+    <row r="112" spans="1:12">
       <c r="A112" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B112">
         <v>0.07310641081274394</v>
@@ -5284,36 +4953,33 @@
         <v>-0.02449058345127231</v>
       </c>
       <c r="E112">
-        <v>0.07581638512332356</v>
+        <v>0.01842157356736251</v>
       </c>
       <c r="F112">
-        <v>0.01842157356736251</v>
+        <v>-0.05935105371605642</v>
       </c>
       <c r="G112">
-        <v>-0.05935105371605642</v>
+        <v>0.009798236335882171</v>
       </c>
       <c r="H112">
-        <v>0.009798236335882171</v>
+        <v>-0.1082947238345646</v>
       </c>
       <c r="I112">
-        <v>-0.1082947238345646</v>
+        <v>-0.1037961555360436</v>
       </c>
       <c r="J112">
-        <v>-0.1037961555360436</v>
+        <v>0.0003718854635650359</v>
       </c>
       <c r="K112">
-        <v>0.0003718854635650359</v>
+        <v>0.021341357002163</v>
       </c>
       <c r="L112">
-        <v>0.021341357002163</v>
-      </c>
-      <c r="M112">
         <v>0.03452586884907394</v>
       </c>
     </row>
-    <row r="113" spans="1:13">
+    <row r="113" spans="1:12">
       <c r="A113" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B113">
         <v>0.1639546799238794</v>
@@ -5325,36 +4991,33 @@
         <v>-0.0667025745046459</v>
       </c>
       <c r="E113">
-        <v>0.1684159672978103</v>
+        <v>-0.01709443335929972</v>
       </c>
       <c r="F113">
-        <v>-0.01709443335929972</v>
+        <v>-0.2895024803491197</v>
       </c>
       <c r="G113">
-        <v>-0.2895024803491197</v>
+        <v>0.0776397268224176</v>
       </c>
       <c r="H113">
-        <v>0.0776397268224176</v>
+        <v>-0.03543043697950043</v>
       </c>
       <c r="I113">
-        <v>-0.03543043697950043</v>
+        <v>0.04561137701581419</v>
       </c>
       <c r="J113">
-        <v>0.04561137701581419</v>
+        <v>0.09541157911489595</v>
       </c>
       <c r="K113">
-        <v>0.09541157911489595</v>
+        <v>-0.01868652174922536</v>
       </c>
       <c r="L113">
-        <v>-0.01868652174922536</v>
-      </c>
-      <c r="M113">
         <v>-0.01213975455061078</v>
       </c>
     </row>
-    <row r="114" spans="1:13">
+    <row r="114" spans="1:12">
       <c r="A114" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B114">
         <v>-0.0387915369698737</v>
@@ -5366,36 +5029,33 @@
         <v>-0.008309411824927615</v>
       </c>
       <c r="E114">
-        <v>-0.03995287284520099</v>
+        <v>0.06731152955730746</v>
       </c>
       <c r="F114">
-        <v>0.06731152955730746</v>
+        <v>0.162267578484764</v>
       </c>
       <c r="G114">
-        <v>0.162267578484764</v>
+        <v>-0.06062462181643469</v>
       </c>
       <c r="H114">
-        <v>-0.06062462181643469</v>
+        <v>0.03543043697950043</v>
       </c>
       <c r="I114">
-        <v>0.03543043697950043</v>
+        <v>0.1249288501225498</v>
       </c>
       <c r="J114">
-        <v>0.1249288501225498</v>
+        <v>0.004215857846210369</v>
       </c>
       <c r="K114">
-        <v>0.004215857846210369</v>
+        <v>-0.07407301037859249</v>
       </c>
       <c r="L114">
-        <v>-0.07407301037859249</v>
-      </c>
-      <c r="M114">
         <v>-0.05814677817756131</v>
       </c>
     </row>
-    <row r="115" spans="1:13">
+    <row r="115" spans="1:12">
       <c r="A115" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B115">
         <v>0.07205331764005773</v>
@@ -5407,36 +5067,33 @@
         <v>0.03073983096073274</v>
       </c>
       <c r="E115">
-        <v>0.05674738964057813</v>
+        <v>-0.04199372157301795</v>
       </c>
       <c r="F115">
-        <v>-0.04199372157301795</v>
+        <v>0.2524533805680367</v>
       </c>
       <c r="G115">
-        <v>0.2524533805680367</v>
+        <v>0.116760017664349</v>
       </c>
       <c r="H115">
-        <v>0.116760017664349</v>
+        <v>-0.009539023046759354</v>
       </c>
       <c r="I115">
-        <v>-0.009539023046759354</v>
+        <v>0.1221922755044131</v>
       </c>
       <c r="J115">
-        <v>0.1221922755044131</v>
+        <v>0.01212642917442963</v>
       </c>
       <c r="K115">
-        <v>0.01212642917442963</v>
+        <v>0.05305989389930721</v>
       </c>
       <c r="L115">
-        <v>0.05305989389930721</v>
-      </c>
-      <c r="M115">
         <v>0.1835344132191645</v>
       </c>
     </row>
-    <row r="116" spans="1:13">
+    <row r="116" spans="1:12">
       <c r="A116" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B116">
         <v>0.04219255534438293</v>
@@ -5448,36 +5105,33 @@
         <v>0.07371585254009005</v>
       </c>
       <c r="E116">
-        <v>0.03031644636545661</v>
+        <v>-0.001078167220345705</v>
       </c>
       <c r="F116">
-        <v>-0.001078167220345705</v>
+        <v>0.00727757098869386</v>
       </c>
       <c r="G116">
-        <v>0.00727757098869386</v>
+        <v>0.01859103738824319</v>
       </c>
       <c r="H116">
-        <v>0.01859103738824319</v>
+        <v>0.07979691684029788</v>
       </c>
       <c r="I116">
-        <v>0.07979691684029788</v>
+        <v>-0.04618680061395342</v>
       </c>
       <c r="J116">
-        <v>-0.04618680061395342</v>
+        <v>-0.01862626212847029</v>
       </c>
       <c r="K116">
-        <v>-0.01862626212847029</v>
+        <v>0.07952783054071189</v>
       </c>
       <c r="L116">
-        <v>0.07952783054071189</v>
-      </c>
-      <c r="M116">
         <v>-0.1124940169045923</v>
       </c>
     </row>
-    <row r="117" spans="1:13">
+    <row r="117" spans="1:12">
       <c r="A117" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B117">
         <v>0.1023856488051464</v>
@@ -5489,36 +5143,33 @@
         <v>-0.07173738887785497</v>
       </c>
       <c r="E117">
-        <v>0.08048648153366411</v>
+        <v>0.05559900609876323</v>
       </c>
       <c r="F117">
-        <v>0.05559900609876323</v>
+        <v>0.3472203702040613</v>
       </c>
       <c r="G117">
-        <v>0.3472203702040613</v>
+        <v>0.2007924684774014</v>
       </c>
       <c r="H117">
-        <v>0.2007924684774014</v>
+        <v>-0.0008431703703584148</v>
       </c>
       <c r="I117">
-        <v>-0.0008431703703584148</v>
+        <v>-0.01670990036987163</v>
       </c>
       <c r="J117">
-        <v>-0.01670990036987163</v>
+        <v>-0.09806634581647078</v>
       </c>
       <c r="K117">
-        <v>-0.09806634581647078</v>
+        <v>-0.06753183909582328</v>
       </c>
       <c r="L117">
-        <v>-0.06753183909582328</v>
-      </c>
-      <c r="M117">
         <v>0.01198516219102963</v>
       </c>
     </row>
-    <row r="118" spans="1:13">
+    <row r="118" spans="1:12">
       <c r="A118" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B118">
         <v>0.006512029524622598</v>
@@ -5530,36 +5181,33 @@
         <v>0.02333085676269508</v>
       </c>
       <c r="E118">
-        <v>0.01584609942930992</v>
+        <v>-0.003475420037058363</v>
       </c>
       <c r="F118">
-        <v>-0.003475420037058363</v>
+        <v>0.189149634426415</v>
       </c>
       <c r="G118">
-        <v>0.189149634426415</v>
+        <v>0.06983270137948439</v>
       </c>
       <c r="H118">
-        <v>0.06983270137948439</v>
+        <v>0.1146383051776141</v>
       </c>
       <c r="I118">
-        <v>0.1146383051776141</v>
+        <v>-0.04476931070905277</v>
       </c>
       <c r="J118">
-        <v>-0.04476931070905277</v>
+        <v>-0.02229241270442817</v>
       </c>
       <c r="K118">
-        <v>-0.02229241270442817</v>
+        <v>-0.02464675084822865</v>
       </c>
       <c r="L118">
-        <v>-0.02464675084822865</v>
-      </c>
-      <c r="M118">
         <v>0.04690916349060803</v>
       </c>
     </row>
-    <row r="119" spans="1:13">
+    <row r="119" spans="1:12">
       <c r="A119" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B119">
         <v>-0.07655544388862889</v>
@@ -5571,36 +5219,33 @@
         <v>0.001323189078269671</v>
       </c>
       <c r="E119">
-        <v>-0.04474360034683844</v>
+        <v>-0.0259323731987573</v>
       </c>
       <c r="F119">
-        <v>-0.0259323731987573</v>
+        <v>0.2077779093973628</v>
       </c>
       <c r="G119">
-        <v>0.2077779093973628</v>
+        <v>0.1118036892348737</v>
       </c>
       <c r="H119">
-        <v>0.1118036892348737</v>
+        <v>0.01196275948388603</v>
       </c>
       <c r="I119">
-        <v>0.01196275948388603</v>
+        <v>-0.07321627300254896</v>
       </c>
       <c r="J119">
-        <v>-0.07321627300254896</v>
+        <v>-0.03202913536677521</v>
       </c>
       <c r="K119">
-        <v>-0.03202913536677521</v>
+        <v>-0.0633901157286938</v>
       </c>
       <c r="L119">
-        <v>-0.0633901157286938</v>
-      </c>
-      <c r="M119">
         <v>0.004253817119799663</v>
       </c>
     </row>
-    <row r="120" spans="1:13">
+    <row r="120" spans="1:12">
       <c r="A120" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B120">
         <v>0.09105428828945783</v>
@@ -5612,36 +5257,33 @@
         <v>-0.03344568523665092</v>
       </c>
       <c r="E120">
-        <v>0.07303092394471999</v>
+        <v>0.01356872920606911</v>
       </c>
       <c r="F120">
-        <v>0.01356872920606911</v>
+        <v>0.6764077450818098</v>
       </c>
       <c r="G120">
-        <v>0.6764077450818098</v>
+        <v>0.2929798717349645</v>
       </c>
       <c r="H120">
-        <v>0.2929798717349645</v>
+        <v>-0.01535323174663805</v>
       </c>
       <c r="I120">
-        <v>-0.01535323174663805</v>
+        <v>-0.2603082827813221</v>
       </c>
       <c r="J120">
-        <v>-0.2603082827813221</v>
+        <v>-0.05368921467531163</v>
       </c>
       <c r="K120">
-        <v>-0.05368921467531163</v>
+        <v>-0.08438922972319363</v>
       </c>
       <c r="L120">
-        <v>-0.08438922972319363</v>
-      </c>
-      <c r="M120">
         <v>0.02618407575054249</v>
       </c>
     </row>
-    <row r="121" spans="1:13">
+    <row r="121" spans="1:12">
       <c r="A121" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B121">
         <v>0.1077965704557071</v>
@@ -5653,36 +5295,33 @@
         <v>0.0156575564008401</v>
       </c>
       <c r="E121">
-        <v>0.07197703728793226</v>
+        <v>0.05486352558785335</v>
       </c>
       <c r="F121">
-        <v>0.05486352558785335</v>
+        <v>-0.4143025144196786</v>
       </c>
       <c r="G121">
-        <v>-0.4143025144196786</v>
+        <v>-0.07814121570698274</v>
       </c>
       <c r="H121">
-        <v>-0.07814121570698274</v>
+        <v>-0.09617848119719596</v>
       </c>
       <c r="I121">
-        <v>-0.09617848119719596</v>
+        <v>0.0429515450323894</v>
       </c>
       <c r="J121">
-        <v>0.0429515450323894</v>
+        <v>0.05929532721873798</v>
       </c>
       <c r="K121">
-        <v>0.05929532721873798</v>
+        <v>0.0837629902705177</v>
       </c>
       <c r="L121">
-        <v>0.0837629902705177</v>
-      </c>
-      <c r="M121">
         <v>0.06309450868798283</v>
       </c>
     </row>
-    <row r="122" spans="1:13">
+    <row r="122" spans="1:12">
       <c r="A122" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B122">
         <v>-0.2333063015198782</v>
@@ -5694,36 +5333,33 @@
         <v>-0.005285959561038389</v>
       </c>
       <c r="E122">
-        <v>-0.1787252816834544</v>
+        <v>0.06459985389848466</v>
       </c>
       <c r="F122">
-        <v>0.06459985389848466</v>
+        <v>0.3617050479649704</v>
       </c>
       <c r="G122">
-        <v>0.3617050479649704</v>
+        <v>-0.1723456800338781</v>
       </c>
       <c r="H122">
-        <v>-0.1723456800338781</v>
+        <v>0.02096685234290874</v>
       </c>
       <c r="I122">
-        <v>0.02096685234290874</v>
+        <v>-0.1537227969599559</v>
       </c>
       <c r="J122">
-        <v>-0.1537227969599559</v>
+        <v>-0.0956436995194121</v>
       </c>
       <c r="K122">
-        <v>-0.0956436995194121</v>
+        <v>-0.05053526500782723</v>
       </c>
       <c r="L122">
-        <v>-0.05053526500782723</v>
-      </c>
-      <c r="M122">
         <v>0.001293242986580623</v>
       </c>
     </row>
-    <row r="123" spans="1:13">
+    <row r="123" spans="1:12">
       <c r="A123" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B123">
         <v>0.1279058983448449</v>
@@ -5735,36 +5371,33 @@
         <v>0.02993753332183147</v>
       </c>
       <c r="E123">
-        <v>0.09727920371486309</v>
+        <v>0.02201890431892473</v>
       </c>
       <c r="F123">
-        <v>0.02201890431892473</v>
+        <v>-0.3340162729721774</v>
       </c>
       <c r="G123">
-        <v>-0.3340162729721774</v>
+        <v>-0.2024483005471378</v>
       </c>
       <c r="H123">
-        <v>-0.2024483005471378</v>
+        <v>0.1742882914540891</v>
       </c>
       <c r="I123">
-        <v>0.1742882914540891</v>
+        <v>0.1136578626915066</v>
       </c>
       <c r="J123">
-        <v>0.1136578626915066</v>
+        <v>0.03998417332446813</v>
       </c>
       <c r="K123">
-        <v>0.03998417332446813</v>
+        <v>0.024430087039502</v>
       </c>
       <c r="L123">
-        <v>0.024430087039502</v>
-      </c>
-      <c r="M123">
         <v>-0.003884757232546221</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="B1:M1"/>
+    <mergeCell ref="B1:L1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
